--- a/Dokumenty/Undulacje.xlsx
+++ b/Dokumenty/Undulacje.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="60" windowWidth="18888" windowHeight="9552"/>
+    <workbookView xWindow="288" yWindow="60" windowWidth="18888" windowHeight="9552" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,24 +16,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Średnia undulacja</t>
   </si>
   <si>
     <t>Maksymalna undulacja</t>
   </si>
+  <si>
+    <t>Minimalna undulacja</t>
+  </si>
+  <si>
+    <t>Dane GPS</t>
+  </si>
+  <si>
+    <t>Dane SRTM</t>
+  </si>
+  <si>
+    <t>Średnia undulacja:</t>
+  </si>
+  <si>
+    <t>Maksymalna undulacja:</t>
+  </si>
+  <si>
+    <t>Minimalna undulacja:</t>
+  </si>
+  <si>
+    <t>Różnica SRTM-GPS (Undulacja)</t>
+  </si>
+  <si>
+    <t>GPS + Undulacja</t>
+  </si>
+  <si>
+    <t>Przed korektą:</t>
+  </si>
+  <si>
+    <t>Po korekcie:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Nowa undulacja (SRTM-(GPS+Undulacja)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Czcionka tekstu podstawowego"/>
       <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
       <charset val="238"/>
     </font>
   </fonts>
@@ -57,9 +97,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -356,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -403,7 +450,7 @@
         <v>-14.299999999999997</v>
       </c>
       <c r="L1">
-        <f>AVERAGE(H:H)</f>
+        <f>AVERAGE(H1:H442)</f>
         <v>-1.2056720629413464E-14</v>
       </c>
       <c r="N1">
@@ -464,6 +511,9 @@
       <c r="C3">
         <f t="shared" si="0"/>
         <v>-0.29999999999999716</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
       </c>
       <c r="E3">
         <f>MIN(C:C)</f>
@@ -12793,13 +12843,8957 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K444"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.796875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.59765625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="39.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="B2" s="2">
+        <v>84</v>
+      </c>
+      <c r="D2" s="2">
+        <f>B2-A2</f>
+        <v>3.9000000000000057</v>
+      </c>
+      <c r="J2" s="2">
+        <f>A2+$G$7</f>
+        <v>86.722121896162534</v>
+      </c>
+      <c r="K2" s="2">
+        <f>B2-J2</f>
+        <v>-2.722121896162534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="B3" s="2">
+        <v>84</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D66" si="0">B3-A3</f>
+        <v>2.9000000000000057</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J66" si="1">A3+$G$7</f>
+        <v>87.722121896162534</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K66" si="2">B3-J3</f>
+        <v>-3.722121896162534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2">
+        <v>84.3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>84</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.29999999999999716</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="1"/>
+        <v>90.922121896162537</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="2"/>
+        <v>-6.9221218961625368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2">
+        <v>83.9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>84</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>90.522121896162545</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="2"/>
+        <v>-6.5221218961625453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
+        <v>83.8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>84</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="1"/>
+        <v>90.422121896162537</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="2"/>
+        <v>-6.4221218961625368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2">
+        <v>84.3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>84</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.29999999999999716</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <f>AVERAGEA(D2:D444)</f>
+        <v>6.6221218961625352</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>90.922121896162537</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="2"/>
+        <v>-6.9221218961625368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2">
+        <v>84.5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>84</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2">
+        <f>MAX(D7:D444)</f>
+        <v>18.200000000000003</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="1"/>
+        <v>91.12212189616254</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="2"/>
+        <v>-7.1221218961625397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2">
+        <v>84.4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>84</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.40000000000000568</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2">
+        <f>MIN(D7:D444)</f>
+        <v>-17.200000000000003</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="1"/>
+        <v>91.022121896162545</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="2"/>
+        <v>-7.0221218961625453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2">
+        <v>84.6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>84</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.59999999999999432</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="1"/>
+        <v>91.222121896162534</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="2"/>
+        <v>-7.222121896162534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2">
+        <v>84.5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>84</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="1"/>
+        <v>91.12212189616254</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="2"/>
+        <v>-7.1221218961625397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2">
+        <v>84.6</v>
+      </c>
+      <c r="B12" s="2">
+        <v>84</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.59999999999999432</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="1"/>
+        <v>91.222121896162534</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="2"/>
+        <v>-7.222121896162534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2">
+        <v>84.6</v>
+      </c>
+      <c r="B13" s="2">
+        <v>84</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.59999999999999432</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="1"/>
+        <v>91.222121896162534</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="2"/>
+        <v>-7.222121896162534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2">
+        <v>85</v>
+      </c>
+      <c r="B14" s="2">
+        <v>84</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2">
+        <f>AVERAGE(K2:K443)</f>
+        <v>-1.4655832814118993E-2</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="1"/>
+        <v>91.62212189616254</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="2"/>
+        <v>-7.6221218961625397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2">
+        <v>85.2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>84</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.2000000000000028</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="2">
+        <f>MAX(K2:K444)</f>
+        <v>11.577878103837463</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="1"/>
+        <v>91.822121896162542</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="2"/>
+        <v>-7.8221218961625425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2">
+        <v>85.6</v>
+      </c>
+      <c r="B16" s="2">
+        <v>84</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.5999999999999943</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
+        <f>MIN(K2:K444)</f>
+        <v>-23.822121896162542</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="1"/>
+        <v>92.222121896162534</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="2"/>
+        <v>-8.222121896162534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2">
+        <v>85.9</v>
+      </c>
+      <c r="B17" s="2">
+        <v>84</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.9000000000000057</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="1"/>
+        <v>92.522121896162545</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="2"/>
+        <v>-8.5221218961625453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="2">
+        <v>86.1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>84</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.0999999999999943</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="1"/>
+        <v>92.722121896162534</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="2"/>
+        <v>-8.722121896162534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="2">
+        <v>84.1</v>
+      </c>
+      <c r="B19" s="2">
+        <v>84</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999994316E-2</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="1"/>
+        <v>90.722121896162534</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="2"/>
+        <v>-6.722121896162534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2">
+        <v>84.9</v>
+      </c>
+      <c r="B20" s="2">
+        <v>84</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.90000000000000568</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="1"/>
+        <v>91.522121896162545</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="2"/>
+        <v>-7.5221218961625453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2">
+        <v>84.6</v>
+      </c>
+      <c r="B21" s="2">
+        <v>84</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.59999999999999432</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="1"/>
+        <v>91.222121896162534</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="2"/>
+        <v>-7.222121896162534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2">
+        <v>84.2</v>
+      </c>
+      <c r="B22" s="2">
+        <v>87</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7999999999999972</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="1"/>
+        <v>90.822121896162542</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="2"/>
+        <v>-3.8221218961625425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="2">
+        <v>83.7</v>
+      </c>
+      <c r="B23" s="2">
+        <v>87</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2999999999999972</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="1"/>
+        <v>90.322121896162542</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="2"/>
+        <v>-3.3221218961625425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="2">
+        <v>82.9</v>
+      </c>
+      <c r="B24" s="2">
+        <v>87</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0999999999999943</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="1"/>
+        <v>89.522121896162545</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="2"/>
+        <v>-2.5221218961625453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2">
+        <v>82.4</v>
+      </c>
+      <c r="B25" s="2">
+        <v>87</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999943</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="1"/>
+        <v>89.022121896162545</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="2"/>
+        <v>-2.0221218961625453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2">
+        <v>82</v>
+      </c>
+      <c r="B26" s="2">
+        <v>87</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="1"/>
+        <v>88.62212189616254</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.6221218961625397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="2">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="B27" s="2">
+        <v>87</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>5.4000000000000057</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="1"/>
+        <v>88.222121896162534</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.222121896162534</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="2">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="B28" s="2">
+        <v>87</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>5.5999999999999943</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="1"/>
+        <v>88.022121896162545</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.0221218961625453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="2">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="B29" s="2">
+        <v>87</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>5.5999999999999943</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="1"/>
+        <v>88.022121896162545</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.0221218961625453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="2">
+        <v>81.3</v>
+      </c>
+      <c r="B30" s="2">
+        <v>87</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>5.7000000000000028</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="1"/>
+        <v>87.922121896162537</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.92212189616253681</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="2">
+        <v>81.5</v>
+      </c>
+      <c r="B31" s="2">
+        <v>87</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="1"/>
+        <v>88.12212189616254</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.1221218961625397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="2">
+        <v>81.8</v>
+      </c>
+      <c r="B32" s="2">
+        <v>87</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>5.2000000000000028</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="1"/>
+        <v>88.422121896162537</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.4221218961625368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="2">
+        <v>81.5</v>
+      </c>
+      <c r="B33" s="2">
+        <v>87</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="1"/>
+        <v>88.12212189616254</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.1221218961625397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="2">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="B34" s="2">
+        <v>87</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>5.9000000000000057</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="1"/>
+        <v>87.722121896162534</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.72212189616253397</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="2">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="B35" s="2">
+        <v>87</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="0"/>
+        <v>6.4000000000000057</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="1"/>
+        <v>87.222121896162534</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.22212189616253397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="2">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="B36" s="2">
+        <v>87</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="0"/>
+        <v>6.9000000000000057</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="1"/>
+        <v>86.722121896162534</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="2"/>
+        <v>0.27787810383746603</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="2">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="B37" s="2">
+        <v>87</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0999999999999943</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="1"/>
+        <v>86.522121896162545</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="2"/>
+        <v>0.47787810383745466</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="2">
+        <v>79.3</v>
+      </c>
+      <c r="B38" s="2">
+        <v>87</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="0"/>
+        <v>7.7000000000000028</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="1"/>
+        <v>85.922121896162537</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0778781038374632</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="2">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="B39" s="2">
+        <v>87</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="0"/>
+        <v>11.099999999999994</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="1"/>
+        <v>82.522121896162545</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="2"/>
+        <v>4.4778781038374547</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="2">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="B40" s="2">
+        <v>87</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="0"/>
+        <v>11.400000000000006</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="1"/>
+        <v>82.222121896162534</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="2"/>
+        <v>4.777878103837466</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="2">
+        <v>75.3</v>
+      </c>
+      <c r="B41" s="2">
+        <v>87</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="0"/>
+        <v>11.700000000000003</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="1"/>
+        <v>81.922121896162537</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="2"/>
+        <v>5.0778781038374632</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="2">
+        <v>75.2</v>
+      </c>
+      <c r="B42" s="2">
+        <v>87</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="0"/>
+        <v>11.799999999999997</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="1"/>
+        <v>81.822121896162542</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1778781038374575</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="2">
+        <v>75.2</v>
+      </c>
+      <c r="B43" s="2">
+        <v>87</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="0"/>
+        <v>11.799999999999997</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="1"/>
+        <v>81.822121896162542</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1778781038374575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="2">
+        <v>75.2</v>
+      </c>
+      <c r="B44" s="2">
+        <v>87</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="0"/>
+        <v>11.799999999999997</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="1"/>
+        <v>81.822121896162542</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1778781038374575</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="2">
+        <v>75</v>
+      </c>
+      <c r="B45" s="2">
+        <v>87</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="1"/>
+        <v>81.62212189616254</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3778781038374603</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="2">
+        <v>74.7</v>
+      </c>
+      <c r="B46" s="2">
+        <v>87</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="0"/>
+        <v>12.299999999999997</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="1"/>
+        <v>81.322121896162542</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="2"/>
+        <v>5.6778781038374575</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="2">
+        <v>74.5</v>
+      </c>
+      <c r="B47" s="2">
+        <v>87</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="1"/>
+        <v>81.12212189616254</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" si="2"/>
+        <v>5.8778781038374603</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="2">
+        <v>74.3</v>
+      </c>
+      <c r="B48" s="2">
+        <v>87</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="0"/>
+        <v>12.700000000000003</v>
+      </c>
+      <c r="J48" s="2">
+        <f t="shared" si="1"/>
+        <v>80.922121896162537</v>
+      </c>
+      <c r="K48" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0778781038374632</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="2">
+        <v>74.3</v>
+      </c>
+      <c r="B49" s="2">
+        <v>87</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="0"/>
+        <v>12.700000000000003</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" si="1"/>
+        <v>80.922121896162537</v>
+      </c>
+      <c r="K49" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0778781038374632</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="2">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="B50" s="2">
+        <v>87</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="0"/>
+        <v>12.900000000000006</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="1"/>
+        <v>80.722121896162534</v>
+      </c>
+      <c r="K50" s="2">
+        <f t="shared" si="2"/>
+        <v>6.277878103837466</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="2">
+        <v>73.8</v>
+      </c>
+      <c r="B51" s="2">
+        <v>87</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="0"/>
+        <v>13.200000000000003</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="1"/>
+        <v>80.422121896162537</v>
+      </c>
+      <c r="K51" s="2">
+        <f t="shared" si="2"/>
+        <v>6.5778781038374632</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="2">
+        <v>74</v>
+      </c>
+      <c r="B52" s="2">
+        <v>87</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="1"/>
+        <v>80.62212189616254</v>
+      </c>
+      <c r="K52" s="2">
+        <f t="shared" si="2"/>
+        <v>6.3778781038374603</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="2">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="B53" s="2">
+        <v>87</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="0"/>
+        <v>12.599999999999994</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="1"/>
+        <v>81.022121896162545</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" si="2"/>
+        <v>5.9778781038374547</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="2">
+        <v>75</v>
+      </c>
+      <c r="B54" s="2">
+        <v>87</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" si="1"/>
+        <v>81.62212189616254</v>
+      </c>
+      <c r="K54" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3778781038374603</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="2">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="B55" s="2">
+        <v>87</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="0"/>
+        <v>11.900000000000006</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" si="1"/>
+        <v>81.722121896162534</v>
+      </c>
+      <c r="K55" s="2">
+        <f t="shared" si="2"/>
+        <v>5.277878103837466</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="2">
+        <v>75.7</v>
+      </c>
+      <c r="B56" s="2">
+        <v>87</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="0"/>
+        <v>11.299999999999997</v>
+      </c>
+      <c r="J56" s="2">
+        <f t="shared" si="1"/>
+        <v>82.322121896162542</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="2"/>
+        <v>4.6778781038374575</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="2">
+        <v>75.8</v>
+      </c>
+      <c r="B57" s="2">
+        <v>87</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="0"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="J57" s="2">
+        <f t="shared" si="1"/>
+        <v>82.422121896162537</v>
+      </c>
+      <c r="K57" s="2">
+        <f t="shared" si="2"/>
+        <v>4.5778781038374632</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="2">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="B58" s="2">
+        <v>87</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="0"/>
+        <v>10.900000000000006</v>
+      </c>
+      <c r="J58" s="2">
+        <f t="shared" si="1"/>
+        <v>82.722121896162534</v>
+      </c>
+      <c r="K58" s="2">
+        <f t="shared" si="2"/>
+        <v>4.277878103837466</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="2">
+        <v>76.3</v>
+      </c>
+      <c r="B59" s="2">
+        <v>87</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="0"/>
+        <v>10.700000000000003</v>
+      </c>
+      <c r="J59" s="2">
+        <f t="shared" si="1"/>
+        <v>82.922121896162537</v>
+      </c>
+      <c r="K59" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0778781038374632</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="2">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="B60" s="2">
+        <v>87</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" si="0"/>
+        <v>10.599999999999994</v>
+      </c>
+      <c r="J60" s="2">
+        <f t="shared" si="1"/>
+        <v>83.022121896162545</v>
+      </c>
+      <c r="K60" s="2">
+        <f t="shared" si="2"/>
+        <v>3.9778781038374547</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="2">
+        <v>76.7</v>
+      </c>
+      <c r="B61" s="2">
+        <v>87</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="0"/>
+        <v>10.299999999999997</v>
+      </c>
+      <c r="J61" s="2">
+        <f t="shared" si="1"/>
+        <v>83.322121896162542</v>
+      </c>
+      <c r="K61" s="2">
+        <f t="shared" si="2"/>
+        <v>3.6778781038374575</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="2">
+        <v>77.2</v>
+      </c>
+      <c r="B62" s="2">
+        <v>87</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7999999999999972</v>
+      </c>
+      <c r="J62" s="2">
+        <f t="shared" si="1"/>
+        <v>83.822121896162542</v>
+      </c>
+      <c r="K62" s="2">
+        <f t="shared" si="2"/>
+        <v>3.1778781038374575</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="2">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="B63" s="2">
+        <v>87</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="0"/>
+        <v>8.9000000000000057</v>
+      </c>
+      <c r="J63" s="2">
+        <f t="shared" si="1"/>
+        <v>84.722121896162534</v>
+      </c>
+      <c r="K63" s="2">
+        <f t="shared" si="2"/>
+        <v>2.277878103837466</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="2">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="B64" s="2">
+        <v>87</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" si="0"/>
+        <v>9.0999999999999943</v>
+      </c>
+      <c r="J64" s="2">
+        <f t="shared" si="1"/>
+        <v>84.522121896162545</v>
+      </c>
+      <c r="K64" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4778781038374547</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="2">
+        <v>77.7</v>
+      </c>
+      <c r="B65" s="2">
+        <v>87</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" si="0"/>
+        <v>9.2999999999999972</v>
+      </c>
+      <c r="J65" s="2">
+        <f t="shared" si="1"/>
+        <v>84.322121896162542</v>
+      </c>
+      <c r="K65" s="2">
+        <f t="shared" si="2"/>
+        <v>2.6778781038374575</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="2">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="B66" s="2">
+        <v>87</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" si="0"/>
+        <v>9.4000000000000057</v>
+      </c>
+      <c r="J66" s="2">
+        <f t="shared" si="1"/>
+        <v>84.222121896162534</v>
+      </c>
+      <c r="K66" s="2">
+        <f t="shared" si="2"/>
+        <v>2.777878103837466</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="2">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="B67" s="2">
+        <v>87</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" ref="D67:D130" si="3">B67-A67</f>
+        <v>9.5999999999999943</v>
+      </c>
+      <c r="J67" s="2">
+        <f t="shared" ref="J67:J130" si="4">A67+$G$7</f>
+        <v>84.022121896162545</v>
+      </c>
+      <c r="K67" s="2">
+        <f t="shared" ref="K67:K130" si="5">B67-J67</f>
+        <v>2.9778781038374547</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="2">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="B68" s="2">
+        <v>87</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" si="3"/>
+        <v>9.5999999999999943</v>
+      </c>
+      <c r="J68" s="2">
+        <f t="shared" si="4"/>
+        <v>84.022121896162545</v>
+      </c>
+      <c r="K68" s="2">
+        <f t="shared" si="5"/>
+        <v>2.9778781038374547</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="2">
+        <v>77.2</v>
+      </c>
+      <c r="B69" s="2">
+        <v>87</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" si="3"/>
+        <v>9.7999999999999972</v>
+      </c>
+      <c r="J69" s="2">
+        <f t="shared" si="4"/>
+        <v>83.822121896162542</v>
+      </c>
+      <c r="K69" s="2">
+        <f t="shared" si="5"/>
+        <v>3.1778781038374575</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="2">
+        <v>77.3</v>
+      </c>
+      <c r="B70" s="2">
+        <v>87</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="3"/>
+        <v>9.7000000000000028</v>
+      </c>
+      <c r="J70" s="2">
+        <f t="shared" si="4"/>
+        <v>83.922121896162537</v>
+      </c>
+      <c r="K70" s="2">
+        <f t="shared" si="5"/>
+        <v>3.0778781038374632</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="B71" s="2">
+        <v>86</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" si="3"/>
+        <v>8.5</v>
+      </c>
+      <c r="J71" s="2">
+        <f t="shared" si="4"/>
+        <v>84.12212189616254</v>
+      </c>
+      <c r="K71" s="2">
+        <f t="shared" si="5"/>
+        <v>1.8778781038374603</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="2">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="B72" s="2">
+        <v>86</v>
+      </c>
+      <c r="D72" s="2">
+        <f t="shared" si="3"/>
+        <v>8.4000000000000057</v>
+      </c>
+      <c r="J72" s="2">
+        <f t="shared" si="4"/>
+        <v>84.222121896162534</v>
+      </c>
+      <c r="K72" s="2">
+        <f t="shared" si="5"/>
+        <v>1.777878103837466</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="2">
+        <v>77.7</v>
+      </c>
+      <c r="B73" s="2">
+        <v>86</v>
+      </c>
+      <c r="D73" s="2">
+        <f t="shared" si="3"/>
+        <v>8.2999999999999972</v>
+      </c>
+      <c r="J73" s="2">
+        <f t="shared" si="4"/>
+        <v>84.322121896162542</v>
+      </c>
+      <c r="K73" s="2">
+        <f t="shared" si="5"/>
+        <v>1.6778781038374575</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="2">
+        <v>77.7</v>
+      </c>
+      <c r="B74" s="2">
+        <v>87</v>
+      </c>
+      <c r="D74" s="2">
+        <f t="shared" si="3"/>
+        <v>9.2999999999999972</v>
+      </c>
+      <c r="J74" s="2">
+        <f t="shared" si="4"/>
+        <v>84.322121896162542</v>
+      </c>
+      <c r="K74" s="2">
+        <f t="shared" si="5"/>
+        <v>2.6778781038374575</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="2">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="B75" s="2">
+        <v>85</v>
+      </c>
+      <c r="D75" s="2">
+        <f t="shared" si="3"/>
+        <v>7.4000000000000057</v>
+      </c>
+      <c r="J75" s="2">
+        <f t="shared" si="4"/>
+        <v>84.222121896162534</v>
+      </c>
+      <c r="K75" s="2">
+        <f t="shared" si="5"/>
+        <v>0.77787810383746603</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="2">
+        <v>77.7</v>
+      </c>
+      <c r="B76" s="2">
+        <v>85</v>
+      </c>
+      <c r="D76" s="2">
+        <f t="shared" si="3"/>
+        <v>7.2999999999999972</v>
+      </c>
+      <c r="J76" s="2">
+        <f t="shared" si="4"/>
+        <v>84.322121896162542</v>
+      </c>
+      <c r="K76" s="2">
+        <f t="shared" si="5"/>
+        <v>0.6778781038374575</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="B77" s="2">
+        <v>85</v>
+      </c>
+      <c r="D77" s="2">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="J77" s="2">
+        <f t="shared" si="4"/>
+        <v>84.12212189616254</v>
+      </c>
+      <c r="K77" s="2">
+        <f t="shared" si="5"/>
+        <v>0.87787810383746034</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="B78" s="2">
+        <v>85</v>
+      </c>
+      <c r="D78" s="2">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="J78" s="2">
+        <f t="shared" si="4"/>
+        <v>84.12212189616254</v>
+      </c>
+      <c r="K78" s="2">
+        <f t="shared" si="5"/>
+        <v>0.87787810383746034</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="B79" s="2">
+        <v>85</v>
+      </c>
+      <c r="D79" s="2">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="J79" s="2">
+        <f t="shared" si="4"/>
+        <v>84.12212189616254</v>
+      </c>
+      <c r="K79" s="2">
+        <f t="shared" si="5"/>
+        <v>0.87787810383746034</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="B80" s="2">
+        <v>85</v>
+      </c>
+      <c r="D80" s="2">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="J80" s="2">
+        <f t="shared" si="4"/>
+        <v>84.12212189616254</v>
+      </c>
+      <c r="K80" s="2">
+        <f t="shared" si="5"/>
+        <v>0.87787810383746034</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="B81" s="2">
+        <v>85</v>
+      </c>
+      <c r="D81" s="2">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="J81" s="2">
+        <f t="shared" si="4"/>
+        <v>84.12212189616254</v>
+      </c>
+      <c r="K81" s="2">
+        <f t="shared" si="5"/>
+        <v>0.87787810383746034</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="2">
+        <v>78</v>
+      </c>
+      <c r="B82" s="2">
+        <v>85</v>
+      </c>
+      <c r="D82" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="J82" s="2">
+        <f t="shared" si="4"/>
+        <v>84.62212189616254</v>
+      </c>
+      <c r="K82" s="2">
+        <f t="shared" si="5"/>
+        <v>0.37787810383746034</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="2">
+        <v>78.2</v>
+      </c>
+      <c r="B83" s="2">
+        <v>85</v>
+      </c>
+      <c r="D83" s="2">
+        <f t="shared" si="3"/>
+        <v>6.7999999999999972</v>
+      </c>
+      <c r="J83" s="2">
+        <f t="shared" si="4"/>
+        <v>84.822121896162542</v>
+      </c>
+      <c r="K83" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1778781038374575</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="2">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="B84" s="2">
+        <v>85</v>
+      </c>
+      <c r="D84" s="2">
+        <f t="shared" si="3"/>
+        <v>6.9000000000000057</v>
+      </c>
+      <c r="J84" s="2">
+        <f t="shared" si="4"/>
+        <v>84.722121896162534</v>
+      </c>
+      <c r="K84" s="2">
+        <f t="shared" si="5"/>
+        <v>0.27787810383746603</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="2">
+        <v>102.2</v>
+      </c>
+      <c r="B85" s="2">
+        <v>85</v>
+      </c>
+      <c r="D85" s="2">
+        <f t="shared" si="3"/>
+        <v>-17.200000000000003</v>
+      </c>
+      <c r="J85" s="2">
+        <f t="shared" si="4"/>
+        <v>108.82212189616254</v>
+      </c>
+      <c r="K85" s="2">
+        <f t="shared" si="5"/>
+        <v>-23.822121896162542</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="2">
+        <v>101.1</v>
+      </c>
+      <c r="B86" s="2">
+        <v>85</v>
+      </c>
+      <c r="D86" s="2">
+        <f t="shared" si="3"/>
+        <v>-16.099999999999994</v>
+      </c>
+      <c r="J86" s="2">
+        <f t="shared" si="4"/>
+        <v>107.72212189616253</v>
+      </c>
+      <c r="K86" s="2">
+        <f t="shared" si="5"/>
+        <v>-22.722121896162534</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="2">
+        <v>100.6</v>
+      </c>
+      <c r="B87" s="2">
+        <v>85</v>
+      </c>
+      <c r="D87" s="2">
+        <f t="shared" si="3"/>
+        <v>-15.599999999999994</v>
+      </c>
+      <c r="J87" s="2">
+        <f t="shared" si="4"/>
+        <v>107.22212189616253</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" si="5"/>
+        <v>-22.222121896162534</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="2">
+        <v>100.7</v>
+      </c>
+      <c r="B88" s="2">
+        <v>85</v>
+      </c>
+      <c r="D88" s="2">
+        <f t="shared" si="3"/>
+        <v>-15.700000000000003</v>
+      </c>
+      <c r="J88" s="2">
+        <f t="shared" si="4"/>
+        <v>107.32212189616254</v>
+      </c>
+      <c r="K88" s="2">
+        <f t="shared" si="5"/>
+        <v>-22.322121896162542</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="2">
+        <v>100.5</v>
+      </c>
+      <c r="B89" s="2">
+        <v>87</v>
+      </c>
+      <c r="D89" s="2">
+        <f t="shared" si="3"/>
+        <v>-13.5</v>
+      </c>
+      <c r="J89" s="2">
+        <f t="shared" si="4"/>
+        <v>107.12212189616254</v>
+      </c>
+      <c r="K89" s="2">
+        <f t="shared" si="5"/>
+        <v>-20.12212189616254</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="2">
+        <v>100.3</v>
+      </c>
+      <c r="B90" s="2">
+        <v>87</v>
+      </c>
+      <c r="D90" s="2">
+        <f t="shared" si="3"/>
+        <v>-13.299999999999997</v>
+      </c>
+      <c r="J90" s="2">
+        <f t="shared" si="4"/>
+        <v>106.92212189616254</v>
+      </c>
+      <c r="K90" s="2">
+        <f t="shared" si="5"/>
+        <v>-19.922121896162537</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="2">
+        <v>100.6</v>
+      </c>
+      <c r="B91" s="2">
+        <v>87</v>
+      </c>
+      <c r="D91" s="2">
+        <f t="shared" si="3"/>
+        <v>-13.599999999999994</v>
+      </c>
+      <c r="J91" s="2">
+        <f t="shared" si="4"/>
+        <v>107.22212189616253</v>
+      </c>
+      <c r="K91" s="2">
+        <f t="shared" si="5"/>
+        <v>-20.222121896162534</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="2">
+        <v>101.6</v>
+      </c>
+      <c r="B92" s="2">
+        <v>87</v>
+      </c>
+      <c r="D92" s="2">
+        <f t="shared" si="3"/>
+        <v>-14.599999999999994</v>
+      </c>
+      <c r="J92" s="2">
+        <f t="shared" si="4"/>
+        <v>108.22212189616253</v>
+      </c>
+      <c r="K92" s="2">
+        <f t="shared" si="5"/>
+        <v>-21.222121896162534</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="2">
+        <v>103.4</v>
+      </c>
+      <c r="B93" s="2">
+        <v>87</v>
+      </c>
+      <c r="D93" s="2">
+        <f t="shared" si="3"/>
+        <v>-16.400000000000006</v>
+      </c>
+      <c r="J93" s="2">
+        <f t="shared" si="4"/>
+        <v>110.02212189616255</v>
+      </c>
+      <c r="K93" s="2">
+        <f t="shared" si="5"/>
+        <v>-23.022121896162545</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="2">
+        <v>103.5</v>
+      </c>
+      <c r="B94" s="2">
+        <v>87</v>
+      </c>
+      <c r="D94" s="2">
+        <f t="shared" si="3"/>
+        <v>-16.5</v>
+      </c>
+      <c r="J94" s="2">
+        <f t="shared" si="4"/>
+        <v>110.12212189616254</v>
+      </c>
+      <c r="K94" s="2">
+        <f t="shared" si="5"/>
+        <v>-23.12212189616254</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="2">
+        <v>103.5</v>
+      </c>
+      <c r="B95" s="2">
+        <v>87</v>
+      </c>
+      <c r="D95" s="2">
+        <f t="shared" si="3"/>
+        <v>-16.5</v>
+      </c>
+      <c r="J95" s="2">
+        <f t="shared" si="4"/>
+        <v>110.12212189616254</v>
+      </c>
+      <c r="K95" s="2">
+        <f t="shared" si="5"/>
+        <v>-23.12212189616254</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="2">
+        <v>103.4</v>
+      </c>
+      <c r="B96" s="2">
+        <v>87</v>
+      </c>
+      <c r="D96" s="2">
+        <f t="shared" si="3"/>
+        <v>-16.400000000000006</v>
+      </c>
+      <c r="J96" s="2">
+        <f t="shared" si="4"/>
+        <v>110.02212189616255</v>
+      </c>
+      <c r="K96" s="2">
+        <f t="shared" si="5"/>
+        <v>-23.022121896162545</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="2">
+        <v>103.5</v>
+      </c>
+      <c r="B97" s="2">
+        <v>87</v>
+      </c>
+      <c r="D97" s="2">
+        <f t="shared" si="3"/>
+        <v>-16.5</v>
+      </c>
+      <c r="J97" s="2">
+        <f t="shared" si="4"/>
+        <v>110.12212189616254</v>
+      </c>
+      <c r="K97" s="2">
+        <f t="shared" si="5"/>
+        <v>-23.12212189616254</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="2">
+        <v>102.4</v>
+      </c>
+      <c r="B98" s="2">
+        <v>87</v>
+      </c>
+      <c r="D98" s="2">
+        <f t="shared" si="3"/>
+        <v>-15.400000000000006</v>
+      </c>
+      <c r="J98" s="2">
+        <f t="shared" si="4"/>
+        <v>109.02212189616255</v>
+      </c>
+      <c r="K98" s="2">
+        <f t="shared" si="5"/>
+        <v>-22.022121896162545</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="2">
+        <v>101.1</v>
+      </c>
+      <c r="B99" s="2">
+        <v>87</v>
+      </c>
+      <c r="D99" s="2">
+        <f t="shared" si="3"/>
+        <v>-14.099999999999994</v>
+      </c>
+      <c r="J99" s="2">
+        <f t="shared" si="4"/>
+        <v>107.72212189616253</v>
+      </c>
+      <c r="K99" s="2">
+        <f t="shared" si="5"/>
+        <v>-20.722121896162534</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="2">
+        <v>99.9</v>
+      </c>
+      <c r="B100" s="2">
+        <v>87</v>
+      </c>
+      <c r="D100" s="2">
+        <f t="shared" si="3"/>
+        <v>-12.900000000000006</v>
+      </c>
+      <c r="J100" s="2">
+        <f t="shared" si="4"/>
+        <v>106.52212189616255</v>
+      </c>
+      <c r="K100" s="2">
+        <f t="shared" si="5"/>
+        <v>-19.522121896162545</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="2">
+        <v>98.6</v>
+      </c>
+      <c r="B101" s="2">
+        <v>87</v>
+      </c>
+      <c r="D101" s="2">
+        <f t="shared" si="3"/>
+        <v>-11.599999999999994</v>
+      </c>
+      <c r="J101" s="2">
+        <f t="shared" si="4"/>
+        <v>105.22212189616253</v>
+      </c>
+      <c r="K101" s="2">
+        <f t="shared" si="5"/>
+        <v>-18.222121896162534</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="2">
+        <v>97.7</v>
+      </c>
+      <c r="B102" s="2">
+        <v>87</v>
+      </c>
+      <c r="D102" s="2">
+        <f t="shared" si="3"/>
+        <v>-10.700000000000003</v>
+      </c>
+      <c r="J102" s="2">
+        <f t="shared" si="4"/>
+        <v>104.32212189616254</v>
+      </c>
+      <c r="K102" s="2">
+        <f t="shared" si="5"/>
+        <v>-17.322121896162542</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="2">
+        <v>97.2</v>
+      </c>
+      <c r="B103" s="2">
+        <v>87</v>
+      </c>
+      <c r="D103" s="2">
+        <f t="shared" si="3"/>
+        <v>-10.200000000000003</v>
+      </c>
+      <c r="J103" s="2">
+        <f t="shared" si="4"/>
+        <v>103.82212189616254</v>
+      </c>
+      <c r="K103" s="2">
+        <f t="shared" si="5"/>
+        <v>-16.822121896162542</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="2">
+        <v>97</v>
+      </c>
+      <c r="B104" s="2">
+        <v>87</v>
+      </c>
+      <c r="D104" s="2">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+      <c r="J104" s="2">
+        <f t="shared" si="4"/>
+        <v>103.62212189616254</v>
+      </c>
+      <c r="K104" s="2">
+        <f t="shared" si="5"/>
+        <v>-16.62212189616254</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="2">
+        <v>96.6</v>
+      </c>
+      <c r="B105" s="2">
+        <v>87</v>
+      </c>
+      <c r="D105" s="2">
+        <f t="shared" si="3"/>
+        <v>-9.5999999999999943</v>
+      </c>
+      <c r="J105" s="2">
+        <f t="shared" si="4"/>
+        <v>103.22212189616253</v>
+      </c>
+      <c r="K105" s="2">
+        <f t="shared" si="5"/>
+        <v>-16.222121896162534</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="2">
+        <v>96.3</v>
+      </c>
+      <c r="B106" s="2">
+        <v>87</v>
+      </c>
+      <c r="D106" s="2">
+        <f t="shared" si="3"/>
+        <v>-9.2999999999999972</v>
+      </c>
+      <c r="J106" s="2">
+        <f t="shared" si="4"/>
+        <v>102.92212189616254</v>
+      </c>
+      <c r="K106" s="2">
+        <f t="shared" si="5"/>
+        <v>-15.922121896162537</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="2">
+        <v>96</v>
+      </c>
+      <c r="B107" s="2">
+        <v>87</v>
+      </c>
+      <c r="D107" s="2">
+        <f t="shared" si="3"/>
+        <v>-9</v>
+      </c>
+      <c r="J107" s="2">
+        <f t="shared" si="4"/>
+        <v>102.62212189616254</v>
+      </c>
+      <c r="K107" s="2">
+        <f t="shared" si="5"/>
+        <v>-15.62212189616254</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="2">
+        <v>94.2</v>
+      </c>
+      <c r="B108" s="2">
+        <v>87</v>
+      </c>
+      <c r="D108" s="2">
+        <f t="shared" si="3"/>
+        <v>-7.2000000000000028</v>
+      </c>
+      <c r="J108" s="2">
+        <f t="shared" si="4"/>
+        <v>100.82212189616254</v>
+      </c>
+      <c r="K108" s="2">
+        <f t="shared" si="5"/>
+        <v>-13.822121896162542</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="2">
+        <v>92.6</v>
+      </c>
+      <c r="B109" s="2">
+        <v>87</v>
+      </c>
+      <c r="D109" s="2">
+        <f t="shared" si="3"/>
+        <v>-5.5999999999999943</v>
+      </c>
+      <c r="J109" s="2">
+        <f t="shared" si="4"/>
+        <v>99.222121896162534</v>
+      </c>
+      <c r="K109" s="2">
+        <f t="shared" si="5"/>
+        <v>-12.222121896162534</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="2">
+        <v>92.4</v>
+      </c>
+      <c r="B110" s="2">
+        <v>87</v>
+      </c>
+      <c r="D110" s="2">
+        <f t="shared" si="3"/>
+        <v>-5.4000000000000057</v>
+      </c>
+      <c r="J110" s="2">
+        <f t="shared" si="4"/>
+        <v>99.022121896162545</v>
+      </c>
+      <c r="K110" s="2">
+        <f t="shared" si="5"/>
+        <v>-12.022121896162545</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="2">
+        <v>92.8</v>
+      </c>
+      <c r="B111" s="2">
+        <v>85</v>
+      </c>
+      <c r="D111" s="2">
+        <f t="shared" si="3"/>
+        <v>-7.7999999999999972</v>
+      </c>
+      <c r="J111" s="2">
+        <f t="shared" si="4"/>
+        <v>99.422121896162537</v>
+      </c>
+      <c r="K111" s="2">
+        <f t="shared" si="5"/>
+        <v>-14.422121896162537</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="2">
+        <v>92.7</v>
+      </c>
+      <c r="B112" s="2">
+        <v>85</v>
+      </c>
+      <c r="D112" s="2">
+        <f t="shared" si="3"/>
+        <v>-7.7000000000000028</v>
+      </c>
+      <c r="J112" s="2">
+        <f t="shared" si="4"/>
+        <v>99.322121896162542</v>
+      </c>
+      <c r="K112" s="2">
+        <f t="shared" si="5"/>
+        <v>-14.322121896162542</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="2">
+        <v>92.6</v>
+      </c>
+      <c r="B113" s="2">
+        <v>85</v>
+      </c>
+      <c r="D113" s="2">
+        <f t="shared" si="3"/>
+        <v>-7.5999999999999943</v>
+      </c>
+      <c r="J113" s="2">
+        <f t="shared" si="4"/>
+        <v>99.222121896162534</v>
+      </c>
+      <c r="K113" s="2">
+        <f t="shared" si="5"/>
+        <v>-14.222121896162534</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="2">
+        <v>92.7</v>
+      </c>
+      <c r="B114" s="2">
+        <v>85</v>
+      </c>
+      <c r="D114" s="2">
+        <f t="shared" si="3"/>
+        <v>-7.7000000000000028</v>
+      </c>
+      <c r="J114" s="2">
+        <f t="shared" si="4"/>
+        <v>99.322121896162542</v>
+      </c>
+      <c r="K114" s="2">
+        <f t="shared" si="5"/>
+        <v>-14.322121896162542</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="2">
+        <v>92.7</v>
+      </c>
+      <c r="B115" s="2">
+        <v>85</v>
+      </c>
+      <c r="D115" s="2">
+        <f t="shared" si="3"/>
+        <v>-7.7000000000000028</v>
+      </c>
+      <c r="J115" s="2">
+        <f t="shared" si="4"/>
+        <v>99.322121896162542</v>
+      </c>
+      <c r="K115" s="2">
+        <f t="shared" si="5"/>
+        <v>-14.322121896162542</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="2">
+        <v>92.7</v>
+      </c>
+      <c r="B116" s="2">
+        <v>85</v>
+      </c>
+      <c r="D116" s="2">
+        <f t="shared" si="3"/>
+        <v>-7.7000000000000028</v>
+      </c>
+      <c r="J116" s="2">
+        <f t="shared" si="4"/>
+        <v>99.322121896162542</v>
+      </c>
+      <c r="K116" s="2">
+        <f t="shared" si="5"/>
+        <v>-14.322121896162542</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="2">
+        <v>92.7</v>
+      </c>
+      <c r="B117" s="2">
+        <v>85</v>
+      </c>
+      <c r="D117" s="2">
+        <f t="shared" si="3"/>
+        <v>-7.7000000000000028</v>
+      </c>
+      <c r="J117" s="2">
+        <f t="shared" si="4"/>
+        <v>99.322121896162542</v>
+      </c>
+      <c r="K117" s="2">
+        <f t="shared" si="5"/>
+        <v>-14.322121896162542</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="2">
+        <v>92.7</v>
+      </c>
+      <c r="B118" s="2">
+        <v>85</v>
+      </c>
+      <c r="D118" s="2">
+        <f t="shared" si="3"/>
+        <v>-7.7000000000000028</v>
+      </c>
+      <c r="J118" s="2">
+        <f t="shared" si="4"/>
+        <v>99.322121896162542</v>
+      </c>
+      <c r="K118" s="2">
+        <f t="shared" si="5"/>
+        <v>-14.322121896162542</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="2">
+        <v>92.5</v>
+      </c>
+      <c r="B119" s="2">
+        <v>85</v>
+      </c>
+      <c r="D119" s="2">
+        <f t="shared" si="3"/>
+        <v>-7.5</v>
+      </c>
+      <c r="J119" s="2">
+        <f t="shared" si="4"/>
+        <v>99.12212189616254</v>
+      </c>
+      <c r="K119" s="2">
+        <f t="shared" si="5"/>
+        <v>-14.12212189616254</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="2">
+        <v>92.5</v>
+      </c>
+      <c r="B120" s="2">
+        <v>85</v>
+      </c>
+      <c r="D120" s="2">
+        <f t="shared" si="3"/>
+        <v>-7.5</v>
+      </c>
+      <c r="J120" s="2">
+        <f t="shared" si="4"/>
+        <v>99.12212189616254</v>
+      </c>
+      <c r="K120" s="2">
+        <f t="shared" si="5"/>
+        <v>-14.12212189616254</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="2">
+        <v>91.4</v>
+      </c>
+      <c r="B121" s="2">
+        <v>85</v>
+      </c>
+      <c r="D121" s="2">
+        <f t="shared" si="3"/>
+        <v>-6.4000000000000057</v>
+      </c>
+      <c r="J121" s="2">
+        <f t="shared" si="4"/>
+        <v>98.022121896162545</v>
+      </c>
+      <c r="K121" s="2">
+        <f t="shared" si="5"/>
+        <v>-13.022121896162545</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="2">
+        <v>91</v>
+      </c>
+      <c r="B122" s="2">
+        <v>85</v>
+      </c>
+      <c r="D122" s="2">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+      <c r="J122" s="2">
+        <f t="shared" si="4"/>
+        <v>97.62212189616254</v>
+      </c>
+      <c r="K122" s="2">
+        <f t="shared" si="5"/>
+        <v>-12.62212189616254</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="2">
+        <v>90.4</v>
+      </c>
+      <c r="B123" s="2">
+        <v>85</v>
+      </c>
+      <c r="D123" s="2">
+        <f t="shared" si="3"/>
+        <v>-5.4000000000000057</v>
+      </c>
+      <c r="J123" s="2">
+        <f t="shared" si="4"/>
+        <v>97.022121896162545</v>
+      </c>
+      <c r="K123" s="2">
+        <f t="shared" si="5"/>
+        <v>-12.022121896162545</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="2">
+        <v>90</v>
+      </c>
+      <c r="B124" s="2">
+        <v>85</v>
+      </c>
+      <c r="D124" s="2">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="J124" s="2">
+        <f t="shared" si="4"/>
+        <v>96.62212189616254</v>
+      </c>
+      <c r="K124" s="2">
+        <f t="shared" si="5"/>
+        <v>-11.62212189616254</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="2">
+        <v>89.5</v>
+      </c>
+      <c r="B125" s="2">
+        <v>84</v>
+      </c>
+      <c r="D125" s="2">
+        <f t="shared" si="3"/>
+        <v>-5.5</v>
+      </c>
+      <c r="J125" s="2">
+        <f t="shared" si="4"/>
+        <v>96.12212189616254</v>
+      </c>
+      <c r="K125" s="2">
+        <f t="shared" si="5"/>
+        <v>-12.12212189616254</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="2">
+        <v>89.5</v>
+      </c>
+      <c r="B126" s="2">
+        <v>84</v>
+      </c>
+      <c r="D126" s="2">
+        <f t="shared" si="3"/>
+        <v>-5.5</v>
+      </c>
+      <c r="J126" s="2">
+        <f t="shared" si="4"/>
+        <v>96.12212189616254</v>
+      </c>
+      <c r="K126" s="2">
+        <f t="shared" si="5"/>
+        <v>-12.12212189616254</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="2">
+        <v>89.3</v>
+      </c>
+      <c r="B127" s="2">
+        <v>84</v>
+      </c>
+      <c r="D127" s="2">
+        <f t="shared" si="3"/>
+        <v>-5.2999999999999972</v>
+      </c>
+      <c r="J127" s="2">
+        <f t="shared" si="4"/>
+        <v>95.922121896162537</v>
+      </c>
+      <c r="K127" s="2">
+        <f t="shared" si="5"/>
+        <v>-11.922121896162537</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="2">
+        <v>88.7</v>
+      </c>
+      <c r="B128" s="2">
+        <v>84</v>
+      </c>
+      <c r="D128" s="2">
+        <f t="shared" si="3"/>
+        <v>-4.7000000000000028</v>
+      </c>
+      <c r="J128" s="2">
+        <f t="shared" si="4"/>
+        <v>95.322121896162542</v>
+      </c>
+      <c r="K128" s="2">
+        <f t="shared" si="5"/>
+        <v>-11.322121896162542</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="2">
+        <v>88.2</v>
+      </c>
+      <c r="B129" s="2">
+        <v>84</v>
+      </c>
+      <c r="D129" s="2">
+        <f t="shared" si="3"/>
+        <v>-4.2000000000000028</v>
+      </c>
+      <c r="J129" s="2">
+        <f t="shared" si="4"/>
+        <v>94.822121896162542</v>
+      </c>
+      <c r="K129" s="2">
+        <f t="shared" si="5"/>
+        <v>-10.822121896162542</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="2">
+        <v>88.1</v>
+      </c>
+      <c r="B130" s="2">
+        <v>84</v>
+      </c>
+      <c r="D130" s="2">
+        <f t="shared" si="3"/>
+        <v>-4.0999999999999943</v>
+      </c>
+      <c r="J130" s="2">
+        <f t="shared" si="4"/>
+        <v>94.722121896162534</v>
+      </c>
+      <c r="K130" s="2">
+        <f t="shared" si="5"/>
+        <v>-10.722121896162534</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="2">
+        <v>87.7</v>
+      </c>
+      <c r="B131" s="2">
+        <v>84</v>
+      </c>
+      <c r="D131" s="2">
+        <f t="shared" ref="D131:D194" si="6">B131-A131</f>
+        <v>-3.7000000000000028</v>
+      </c>
+      <c r="J131" s="2">
+        <f t="shared" ref="J131:J194" si="7">A131+$G$7</f>
+        <v>94.322121896162542</v>
+      </c>
+      <c r="K131" s="2">
+        <f t="shared" ref="K131:K194" si="8">B131-J131</f>
+        <v>-10.322121896162542</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="2">
+        <v>87.4</v>
+      </c>
+      <c r="B132" s="2">
+        <v>84</v>
+      </c>
+      <c r="D132" s="2">
+        <f t="shared" si="6"/>
+        <v>-3.4000000000000057</v>
+      </c>
+      <c r="J132" s="2">
+        <f t="shared" si="7"/>
+        <v>94.022121896162545</v>
+      </c>
+      <c r="K132" s="2">
+        <f t="shared" si="8"/>
+        <v>-10.022121896162545</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="2">
+        <v>87.2</v>
+      </c>
+      <c r="B133" s="2">
+        <v>84</v>
+      </c>
+      <c r="D133" s="2">
+        <f t="shared" si="6"/>
+        <v>-3.2000000000000028</v>
+      </c>
+      <c r="J133" s="2">
+        <f t="shared" si="7"/>
+        <v>93.822121896162542</v>
+      </c>
+      <c r="K133" s="2">
+        <f t="shared" si="8"/>
+        <v>-9.8221218961625425</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="2">
+        <v>87.1</v>
+      </c>
+      <c r="B134" s="2">
+        <v>84</v>
+      </c>
+      <c r="D134" s="2">
+        <f t="shared" si="6"/>
+        <v>-3.0999999999999943</v>
+      </c>
+      <c r="J134" s="2">
+        <f t="shared" si="7"/>
+        <v>93.722121896162534</v>
+      </c>
+      <c r="K134" s="2">
+        <f t="shared" si="8"/>
+        <v>-9.722121896162534</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="2">
+        <v>86.7</v>
+      </c>
+      <c r="B135" s="2">
+        <v>84</v>
+      </c>
+      <c r="D135" s="2">
+        <f t="shared" si="6"/>
+        <v>-2.7000000000000028</v>
+      </c>
+      <c r="J135" s="2">
+        <f t="shared" si="7"/>
+        <v>93.322121896162542</v>
+      </c>
+      <c r="K135" s="2">
+        <f t="shared" si="8"/>
+        <v>-9.3221218961625425</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="2">
+        <v>86.5</v>
+      </c>
+      <c r="B136" s="2">
+        <v>84</v>
+      </c>
+      <c r="D136" s="2">
+        <f t="shared" si="6"/>
+        <v>-2.5</v>
+      </c>
+      <c r="J136" s="2">
+        <f t="shared" si="7"/>
+        <v>93.12212189616254</v>
+      </c>
+      <c r="K136" s="2">
+        <f t="shared" si="8"/>
+        <v>-9.1221218961625397</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="2">
+        <v>86.5</v>
+      </c>
+      <c r="B137" s="2">
+        <v>84</v>
+      </c>
+      <c r="D137" s="2">
+        <f t="shared" si="6"/>
+        <v>-2.5</v>
+      </c>
+      <c r="J137" s="2">
+        <f t="shared" si="7"/>
+        <v>93.12212189616254</v>
+      </c>
+      <c r="K137" s="2">
+        <f t="shared" si="8"/>
+        <v>-9.1221218961625397</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="2">
+        <v>86.2</v>
+      </c>
+      <c r="B138" s="2">
+        <v>84</v>
+      </c>
+      <c r="D138" s="2">
+        <f t="shared" si="6"/>
+        <v>-2.2000000000000028</v>
+      </c>
+      <c r="J138" s="2">
+        <f t="shared" si="7"/>
+        <v>92.822121896162542</v>
+      </c>
+      <c r="K138" s="2">
+        <f t="shared" si="8"/>
+        <v>-8.8221218961625425</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="2">
+        <v>85.9</v>
+      </c>
+      <c r="B139" s="2">
+        <v>84</v>
+      </c>
+      <c r="D139" s="2">
+        <f t="shared" si="6"/>
+        <v>-1.9000000000000057</v>
+      </c>
+      <c r="J139" s="2">
+        <f t="shared" si="7"/>
+        <v>92.522121896162545</v>
+      </c>
+      <c r="K139" s="2">
+        <f t="shared" si="8"/>
+        <v>-8.5221218961625453</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="2">
+        <v>85.2</v>
+      </c>
+      <c r="B140" s="2">
+        <v>84</v>
+      </c>
+      <c r="D140" s="2">
+        <f t="shared" si="6"/>
+        <v>-1.2000000000000028</v>
+      </c>
+      <c r="J140" s="2">
+        <f t="shared" si="7"/>
+        <v>91.822121896162542</v>
+      </c>
+      <c r="K140" s="2">
+        <f t="shared" si="8"/>
+        <v>-7.8221218961625425</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="2">
+        <v>84.3</v>
+      </c>
+      <c r="B141" s="2">
+        <v>84</v>
+      </c>
+      <c r="D141" s="2">
+        <f t="shared" si="6"/>
+        <v>-0.29999999999999716</v>
+      </c>
+      <c r="J141" s="2">
+        <f t="shared" si="7"/>
+        <v>90.922121896162537</v>
+      </c>
+      <c r="K141" s="2">
+        <f t="shared" si="8"/>
+        <v>-6.9221218961625368</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="2">
+        <v>83.7</v>
+      </c>
+      <c r="B142" s="2">
+        <v>84</v>
+      </c>
+      <c r="D142" s="2">
+        <f t="shared" si="6"/>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="J142" s="2">
+        <f t="shared" si="7"/>
+        <v>90.322121896162542</v>
+      </c>
+      <c r="K142" s="2">
+        <f t="shared" si="8"/>
+        <v>-6.3221218961625425</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="2">
+        <v>83.3</v>
+      </c>
+      <c r="B143" s="2">
+        <v>84</v>
+      </c>
+      <c r="D143" s="2">
+        <f t="shared" si="6"/>
+        <v>0.70000000000000284</v>
+      </c>
+      <c r="J143" s="2">
+        <f t="shared" si="7"/>
+        <v>89.922121896162537</v>
+      </c>
+      <c r="K143" s="2">
+        <f t="shared" si="8"/>
+        <v>-5.9221218961625368</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="2">
+        <v>83.1</v>
+      </c>
+      <c r="B144" s="2">
+        <v>84</v>
+      </c>
+      <c r="D144" s="2">
+        <f t="shared" si="6"/>
+        <v>0.90000000000000568</v>
+      </c>
+      <c r="J144" s="2">
+        <f t="shared" si="7"/>
+        <v>89.722121896162534</v>
+      </c>
+      <c r="K144" s="2">
+        <f t="shared" si="8"/>
+        <v>-5.722121896162534</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="2">
+        <v>82.7</v>
+      </c>
+      <c r="B145" s="2">
+        <v>84</v>
+      </c>
+      <c r="D145" s="2">
+        <f t="shared" si="6"/>
+        <v>1.2999999999999972</v>
+      </c>
+      <c r="J145" s="2">
+        <f t="shared" si="7"/>
+        <v>89.322121896162542</v>
+      </c>
+      <c r="K145" s="2">
+        <f t="shared" si="8"/>
+        <v>-5.3221218961625425</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="2">
+        <v>82.3</v>
+      </c>
+      <c r="B146" s="2">
+        <v>84</v>
+      </c>
+      <c r="D146" s="2">
+        <f t="shared" si="6"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="J146" s="2">
+        <f t="shared" si="7"/>
+        <v>88.922121896162537</v>
+      </c>
+      <c r="K146" s="2">
+        <f t="shared" si="8"/>
+        <v>-4.9221218961625368</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="2">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="B147" s="2">
+        <v>84</v>
+      </c>
+      <c r="D147" s="2">
+        <f t="shared" si="6"/>
+        <v>2.4000000000000057</v>
+      </c>
+      <c r="J147" s="2">
+        <f t="shared" si="7"/>
+        <v>88.222121896162534</v>
+      </c>
+      <c r="K147" s="2">
+        <f t="shared" si="8"/>
+        <v>-4.222121896162534</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="2">
+        <v>81.2</v>
+      </c>
+      <c r="B148" s="2">
+        <v>84</v>
+      </c>
+      <c r="D148" s="2">
+        <f t="shared" si="6"/>
+        <v>2.7999999999999972</v>
+      </c>
+      <c r="J148" s="2">
+        <f t="shared" si="7"/>
+        <v>87.822121896162542</v>
+      </c>
+      <c r="K148" s="2">
+        <f t="shared" si="8"/>
+        <v>-3.8221218961625425</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="2">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="B149" s="2">
+        <v>84</v>
+      </c>
+      <c r="D149" s="2">
+        <f t="shared" si="6"/>
+        <v>3.0999999999999943</v>
+      </c>
+      <c r="J149" s="2">
+        <f t="shared" si="7"/>
+        <v>87.522121896162545</v>
+      </c>
+      <c r="K149" s="2">
+        <f t="shared" si="8"/>
+        <v>-3.5221218961625453</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="2">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="B150" s="2">
+        <v>84</v>
+      </c>
+      <c r="D150" s="2">
+        <f t="shared" si="6"/>
+        <v>3.5999999999999943</v>
+      </c>
+      <c r="J150" s="2">
+        <f t="shared" si="7"/>
+        <v>87.022121896162545</v>
+      </c>
+      <c r="K150" s="2">
+        <f t="shared" si="8"/>
+        <v>-3.0221218961625453</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="2">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="B151" s="2">
+        <v>84</v>
+      </c>
+      <c r="D151" s="2">
+        <f t="shared" si="6"/>
+        <v>4.0999999999999943</v>
+      </c>
+      <c r="J151" s="2">
+        <f t="shared" si="7"/>
+        <v>86.522121896162545</v>
+      </c>
+      <c r="K151" s="2">
+        <f t="shared" si="8"/>
+        <v>-2.5221218961625453</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="2">
+        <v>79.3</v>
+      </c>
+      <c r="B152" s="2">
+        <v>84</v>
+      </c>
+      <c r="D152" s="2">
+        <f t="shared" si="6"/>
+        <v>4.7000000000000028</v>
+      </c>
+      <c r="J152" s="2">
+        <f t="shared" si="7"/>
+        <v>85.922121896162537</v>
+      </c>
+      <c r="K152" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.9221218961625368</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="2">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="B153" s="2">
+        <v>84</v>
+      </c>
+      <c r="D153" s="2">
+        <f t="shared" si="6"/>
+        <v>7.9000000000000057</v>
+      </c>
+      <c r="J153" s="2">
+        <f t="shared" si="7"/>
+        <v>82.722121896162534</v>
+      </c>
+      <c r="K153" s="2">
+        <f t="shared" si="8"/>
+        <v>1.277878103837466</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="2">
+        <v>74.8</v>
+      </c>
+      <c r="B154" s="2">
+        <v>84</v>
+      </c>
+      <c r="D154" s="2">
+        <f t="shared" si="6"/>
+        <v>9.2000000000000028</v>
+      </c>
+      <c r="J154" s="2">
+        <f t="shared" si="7"/>
+        <v>81.422121896162537</v>
+      </c>
+      <c r="K154" s="2">
+        <f t="shared" si="8"/>
+        <v>2.5778781038374632</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="2">
+        <v>73.7</v>
+      </c>
+      <c r="B155" s="2">
+        <v>84</v>
+      </c>
+      <c r="D155" s="2">
+        <f t="shared" si="6"/>
+        <v>10.299999999999997</v>
+      </c>
+      <c r="J155" s="2">
+        <f t="shared" si="7"/>
+        <v>80.322121896162542</v>
+      </c>
+      <c r="K155" s="2">
+        <f t="shared" si="8"/>
+        <v>3.6778781038374575</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="2">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="B156" s="2">
+        <v>84</v>
+      </c>
+      <c r="D156" s="2">
+        <f t="shared" si="6"/>
+        <v>10.099999999999994</v>
+      </c>
+      <c r="J156" s="2">
+        <f t="shared" si="7"/>
+        <v>80.522121896162545</v>
+      </c>
+      <c r="K156" s="2">
+        <f t="shared" si="8"/>
+        <v>3.4778781038374547</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="2">
+        <v>74.3</v>
+      </c>
+      <c r="B157" s="2">
+        <v>84</v>
+      </c>
+      <c r="D157" s="2">
+        <f t="shared" si="6"/>
+        <v>9.7000000000000028</v>
+      </c>
+      <c r="J157" s="2">
+        <f t="shared" si="7"/>
+        <v>80.922121896162537</v>
+      </c>
+      <c r="K157" s="2">
+        <f t="shared" si="8"/>
+        <v>3.0778781038374632</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="2">
+        <v>74.8</v>
+      </c>
+      <c r="B158" s="2">
+        <v>84</v>
+      </c>
+      <c r="D158" s="2">
+        <f t="shared" si="6"/>
+        <v>9.2000000000000028</v>
+      </c>
+      <c r="J158" s="2">
+        <f t="shared" si="7"/>
+        <v>81.422121896162537</v>
+      </c>
+      <c r="K158" s="2">
+        <f t="shared" si="8"/>
+        <v>2.5778781038374632</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="2">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="B159" s="2">
+        <v>84</v>
+      </c>
+      <c r="D159" s="2">
+        <f t="shared" si="6"/>
+        <v>8.0999999999999943</v>
+      </c>
+      <c r="J159" s="2">
+        <f t="shared" si="7"/>
+        <v>82.522121896162545</v>
+      </c>
+      <c r="K159" s="2">
+        <f t="shared" si="8"/>
+        <v>1.4778781038374547</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="2">
+        <v>76.3</v>
+      </c>
+      <c r="B160" s="2">
+        <v>84</v>
+      </c>
+      <c r="D160" s="2">
+        <f t="shared" si="6"/>
+        <v>7.7000000000000028</v>
+      </c>
+      <c r="J160" s="2">
+        <f t="shared" si="7"/>
+        <v>82.922121896162537</v>
+      </c>
+      <c r="K160" s="2">
+        <f t="shared" si="8"/>
+        <v>1.0778781038374632</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="2">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="B161" s="2">
+        <v>83</v>
+      </c>
+      <c r="D161" s="2">
+        <f t="shared" si="6"/>
+        <v>6.9000000000000057</v>
+      </c>
+      <c r="J161" s="2">
+        <f t="shared" si="7"/>
+        <v>82.722121896162534</v>
+      </c>
+      <c r="K161" s="2">
+        <f t="shared" si="8"/>
+        <v>0.27787810383746603</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="2">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="B162" s="2">
+        <v>83</v>
+      </c>
+      <c r="D162" s="2">
+        <f t="shared" si="6"/>
+        <v>7.4000000000000057</v>
+      </c>
+      <c r="J162" s="2">
+        <f t="shared" si="7"/>
+        <v>82.222121896162534</v>
+      </c>
+      <c r="K162" s="2">
+        <f t="shared" si="8"/>
+        <v>0.77787810383746603</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="2">
+        <v>76.8</v>
+      </c>
+      <c r="B163" s="2">
+        <v>83</v>
+      </c>
+      <c r="D163" s="2">
+        <f t="shared" si="6"/>
+        <v>6.2000000000000028</v>
+      </c>
+      <c r="J163" s="2">
+        <f t="shared" si="7"/>
+        <v>83.422121896162537</v>
+      </c>
+      <c r="K163" s="2">
+        <f t="shared" si="8"/>
+        <v>-0.42212189616253681</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="2">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="B164" s="2">
+        <v>83</v>
+      </c>
+      <c r="D164" s="2">
+        <f t="shared" si="6"/>
+        <v>5.9000000000000057</v>
+      </c>
+      <c r="J164" s="2">
+        <f t="shared" si="7"/>
+        <v>83.722121896162534</v>
+      </c>
+      <c r="K164" s="2">
+        <f t="shared" si="8"/>
+        <v>-0.72212189616253397</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="2">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="B165" s="2">
+        <v>83</v>
+      </c>
+      <c r="D165" s="2">
+        <f t="shared" si="6"/>
+        <v>5.9000000000000057</v>
+      </c>
+      <c r="J165" s="2">
+        <f t="shared" si="7"/>
+        <v>83.722121896162534</v>
+      </c>
+      <c r="K165" s="2">
+        <f t="shared" si="8"/>
+        <v>-0.72212189616253397</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="2">
+        <v>77.3</v>
+      </c>
+      <c r="B166" s="2">
+        <v>83</v>
+      </c>
+      <c r="D166" s="2">
+        <f t="shared" si="6"/>
+        <v>5.7000000000000028</v>
+      </c>
+      <c r="J166" s="2">
+        <f t="shared" si="7"/>
+        <v>83.922121896162537</v>
+      </c>
+      <c r="K166" s="2">
+        <f t="shared" si="8"/>
+        <v>-0.92212189616253681</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="B167" s="2">
+        <v>83</v>
+      </c>
+      <c r="D167" s="2">
+        <f t="shared" si="6"/>
+        <v>5.5</v>
+      </c>
+      <c r="J167" s="2">
+        <f t="shared" si="7"/>
+        <v>84.12212189616254</v>
+      </c>
+      <c r="K167" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.1221218961625397</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="2">
+        <v>77.8</v>
+      </c>
+      <c r="B168" s="2">
+        <v>83</v>
+      </c>
+      <c r="D168" s="2">
+        <f t="shared" si="6"/>
+        <v>5.2000000000000028</v>
+      </c>
+      <c r="J168" s="2">
+        <f t="shared" si="7"/>
+        <v>84.422121896162537</v>
+      </c>
+      <c r="K168" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.4221218961625368</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="2">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="B169" s="2">
+        <v>83</v>
+      </c>
+      <c r="D169" s="2">
+        <f t="shared" si="6"/>
+        <v>4.9000000000000057</v>
+      </c>
+      <c r="J169" s="2">
+        <f t="shared" si="7"/>
+        <v>84.722121896162534</v>
+      </c>
+      <c r="K169" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.722121896162534</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" s="2">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="B170" s="2">
+        <v>83</v>
+      </c>
+      <c r="D170" s="2">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000057</v>
+      </c>
+      <c r="J170" s="2">
+        <f t="shared" si="7"/>
+        <v>85.222121896162534</v>
+      </c>
+      <c r="K170" s="2">
+        <f t="shared" si="8"/>
+        <v>-2.222121896162534</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" s="2">
+        <v>79</v>
+      </c>
+      <c r="B171" s="2">
+        <v>83</v>
+      </c>
+      <c r="D171" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J171" s="2">
+        <f t="shared" si="7"/>
+        <v>85.62212189616254</v>
+      </c>
+      <c r="K171" s="2">
+        <f t="shared" si="8"/>
+        <v>-2.6221218961625397</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" s="2">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="B172" s="2">
+        <v>83</v>
+      </c>
+      <c r="D172" s="2">
+        <f t="shared" si="6"/>
+        <v>3.9000000000000057</v>
+      </c>
+      <c r="J172" s="2">
+        <f t="shared" si="7"/>
+        <v>85.722121896162534</v>
+      </c>
+      <c r="K172" s="2">
+        <f t="shared" si="8"/>
+        <v>-2.722121896162534</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" s="2">
+        <v>79.3</v>
+      </c>
+      <c r="B173" s="2">
+        <v>83</v>
+      </c>
+      <c r="D173" s="2">
+        <f t="shared" si="6"/>
+        <v>3.7000000000000028</v>
+      </c>
+      <c r="J173" s="2">
+        <f t="shared" si="7"/>
+        <v>85.922121896162537</v>
+      </c>
+      <c r="K173" s="2">
+        <f t="shared" si="8"/>
+        <v>-2.9221218961625368</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" s="2">
+        <v>79</v>
+      </c>
+      <c r="B174" s="2">
+        <v>83</v>
+      </c>
+      <c r="D174" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J174" s="2">
+        <f t="shared" si="7"/>
+        <v>85.62212189616254</v>
+      </c>
+      <c r="K174" s="2">
+        <f t="shared" si="8"/>
+        <v>-2.6221218961625397</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" s="2">
+        <v>79</v>
+      </c>
+      <c r="B175" s="2">
+        <v>83</v>
+      </c>
+      <c r="D175" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J175" s="2">
+        <f t="shared" si="7"/>
+        <v>85.62212189616254</v>
+      </c>
+      <c r="K175" s="2">
+        <f t="shared" si="8"/>
+        <v>-2.6221218961625397</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" s="2">
+        <v>79</v>
+      </c>
+      <c r="B176" s="2">
+        <v>83</v>
+      </c>
+      <c r="D176" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J176" s="2">
+        <f t="shared" si="7"/>
+        <v>85.62212189616254</v>
+      </c>
+      <c r="K176" s="2">
+        <f t="shared" si="8"/>
+        <v>-2.6221218961625397</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" s="2">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="B177" s="2">
+        <v>83</v>
+      </c>
+      <c r="D177" s="2">
+        <f t="shared" si="6"/>
+        <v>3.9000000000000057</v>
+      </c>
+      <c r="J177" s="2">
+        <f t="shared" si="7"/>
+        <v>85.722121896162534</v>
+      </c>
+      <c r="K177" s="2">
+        <f t="shared" si="8"/>
+        <v>-2.722121896162534</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" s="2">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="B178" s="2">
+        <v>83</v>
+      </c>
+      <c r="D178" s="2">
+        <f t="shared" si="6"/>
+        <v>3.5999999999999943</v>
+      </c>
+      <c r="J178" s="2">
+        <f t="shared" si="7"/>
+        <v>86.022121896162545</v>
+      </c>
+      <c r="K178" s="2">
+        <f t="shared" si="8"/>
+        <v>-3.0221218961625453</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" s="2">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="B179" s="2">
+        <v>83</v>
+      </c>
+      <c r="D179" s="2">
+        <f t="shared" si="6"/>
+        <v>3.5999999999999943</v>
+      </c>
+      <c r="J179" s="2">
+        <f t="shared" si="7"/>
+        <v>86.022121896162545</v>
+      </c>
+      <c r="K179" s="2">
+        <f t="shared" si="8"/>
+        <v>-3.0221218961625453</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180" s="2">
+        <v>80.2</v>
+      </c>
+      <c r="B180" s="2">
+        <v>82</v>
+      </c>
+      <c r="D180" s="2">
+        <f t="shared" si="6"/>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="J180" s="2">
+        <f t="shared" si="7"/>
+        <v>86.822121896162542</v>
+      </c>
+      <c r="K180" s="2">
+        <f t="shared" si="8"/>
+        <v>-4.8221218961625425</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" s="2">
+        <v>80.2</v>
+      </c>
+      <c r="B181" s="2">
+        <v>82</v>
+      </c>
+      <c r="D181" s="2">
+        <f t="shared" si="6"/>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="J181" s="2">
+        <f t="shared" si="7"/>
+        <v>86.822121896162542</v>
+      </c>
+      <c r="K181" s="2">
+        <f t="shared" si="8"/>
+        <v>-4.8221218961625425</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" s="2">
+        <v>80</v>
+      </c>
+      <c r="B182" s="2">
+        <v>82</v>
+      </c>
+      <c r="D182" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J182" s="2">
+        <f t="shared" si="7"/>
+        <v>86.62212189616254</v>
+      </c>
+      <c r="K182" s="2">
+        <f t="shared" si="8"/>
+        <v>-4.6221218961625397</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" s="2">
+        <v>80</v>
+      </c>
+      <c r="B183" s="2">
+        <v>82</v>
+      </c>
+      <c r="D183" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J183" s="2">
+        <f t="shared" si="7"/>
+        <v>86.62212189616254</v>
+      </c>
+      <c r="K183" s="2">
+        <f t="shared" si="8"/>
+        <v>-4.6221218961625397</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184" s="2">
+        <v>80.5</v>
+      </c>
+      <c r="B184" s="2">
+        <v>82</v>
+      </c>
+      <c r="D184" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="J184" s="2">
+        <f t="shared" si="7"/>
+        <v>87.12212189616254</v>
+      </c>
+      <c r="K184" s="2">
+        <f t="shared" si="8"/>
+        <v>-5.1221218961625397</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185" s="2">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="B185" s="2">
+        <v>82</v>
+      </c>
+      <c r="D185" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5999999999999943</v>
+      </c>
+      <c r="J185" s="2">
+        <f t="shared" si="7"/>
+        <v>87.022121896162545</v>
+      </c>
+      <c r="K185" s="2">
+        <f t="shared" si="8"/>
+        <v>-5.0221218961625453</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186" s="2">
+        <v>80.2</v>
+      </c>
+      <c r="B186" s="2">
+        <v>82</v>
+      </c>
+      <c r="D186" s="2">
+        <f t="shared" si="6"/>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="J186" s="2">
+        <f t="shared" si="7"/>
+        <v>86.822121896162542</v>
+      </c>
+      <c r="K186" s="2">
+        <f t="shared" si="8"/>
+        <v>-4.8221218961625425</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187" s="2">
+        <v>80.2</v>
+      </c>
+      <c r="B187" s="2">
+        <v>82</v>
+      </c>
+      <c r="D187" s="2">
+        <f t="shared" si="6"/>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="J187" s="2">
+        <f t="shared" si="7"/>
+        <v>86.822121896162542</v>
+      </c>
+      <c r="K187" s="2">
+        <f t="shared" si="8"/>
+        <v>-4.8221218961625425</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188" s="2">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="B188" s="2">
+        <v>82</v>
+      </c>
+      <c r="D188" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="J188" s="2">
+        <f t="shared" si="7"/>
+        <v>87.522121896162545</v>
+      </c>
+      <c r="K188" s="2">
+        <f t="shared" si="8"/>
+        <v>-5.5221218961625453</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189" s="2">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="B189" s="2">
+        <v>82</v>
+      </c>
+      <c r="D189" s="2">
+        <f t="shared" si="6"/>
+        <v>0.59999999999999432</v>
+      </c>
+      <c r="J189" s="2">
+        <f t="shared" si="7"/>
+        <v>88.022121896162545</v>
+      </c>
+      <c r="K189" s="2">
+        <f t="shared" si="8"/>
+        <v>-6.0221218961625453</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190" s="2">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="B190" s="2">
+        <v>82</v>
+      </c>
+      <c r="D190" s="2">
+        <f t="shared" si="6"/>
+        <v>0.59999999999999432</v>
+      </c>
+      <c r="J190" s="2">
+        <f t="shared" si="7"/>
+        <v>88.022121896162545</v>
+      </c>
+      <c r="K190" s="2">
+        <f t="shared" si="8"/>
+        <v>-6.0221218961625453</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191" s="2">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="B191" s="2">
+        <v>82</v>
+      </c>
+      <c r="D191" s="2">
+        <f t="shared" si="6"/>
+        <v>0.59999999999999432</v>
+      </c>
+      <c r="J191" s="2">
+        <f t="shared" si="7"/>
+        <v>88.022121896162545</v>
+      </c>
+      <c r="K191" s="2">
+        <f t="shared" si="8"/>
+        <v>-6.0221218961625453</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192" s="2">
+        <v>81.5</v>
+      </c>
+      <c r="B192" s="2">
+        <v>82</v>
+      </c>
+      <c r="D192" s="2">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="J192" s="2">
+        <f t="shared" si="7"/>
+        <v>88.12212189616254</v>
+      </c>
+      <c r="K192" s="2">
+        <f t="shared" si="8"/>
+        <v>-6.1221218961625397</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193" s="2">
+        <v>81.7</v>
+      </c>
+      <c r="B193" s="2">
+        <v>82</v>
+      </c>
+      <c r="D193" s="2">
+        <f t="shared" si="6"/>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="J193" s="2">
+        <f t="shared" si="7"/>
+        <v>88.322121896162542</v>
+      </c>
+      <c r="K193" s="2">
+        <f t="shared" si="8"/>
+        <v>-6.3221218961625425</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194" s="2">
+        <v>82.1</v>
+      </c>
+      <c r="B194" s="2">
+        <v>82</v>
+      </c>
+      <c r="D194" s="2">
+        <f t="shared" si="6"/>
+        <v>-9.9999999999994316E-2</v>
+      </c>
+      <c r="J194" s="2">
+        <f t="shared" si="7"/>
+        <v>88.722121896162534</v>
+      </c>
+      <c r="K194" s="2">
+        <f t="shared" si="8"/>
+        <v>-6.722121896162534</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195" s="2">
+        <v>82.1</v>
+      </c>
+      <c r="B195" s="2">
+        <v>82</v>
+      </c>
+      <c r="D195" s="2">
+        <f t="shared" ref="D195:D258" si="9">B195-A195</f>
+        <v>-9.9999999999994316E-2</v>
+      </c>
+      <c r="J195" s="2">
+        <f t="shared" ref="J195:J258" si="10">A195+$G$7</f>
+        <v>88.722121896162534</v>
+      </c>
+      <c r="K195" s="2">
+        <f t="shared" ref="K195:K258" si="11">B195-J195</f>
+        <v>-6.722121896162534</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196" s="2">
+        <v>82</v>
+      </c>
+      <c r="B196" s="2">
+        <v>82</v>
+      </c>
+      <c r="D196" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J196" s="2">
+        <f t="shared" si="10"/>
+        <v>88.62212189616254</v>
+      </c>
+      <c r="K196" s="2">
+        <f t="shared" si="11"/>
+        <v>-6.6221218961625397</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197" s="2">
+        <v>81.7</v>
+      </c>
+      <c r="B197" s="2">
+        <v>82</v>
+      </c>
+      <c r="D197" s="2">
+        <f t="shared" si="9"/>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="J197" s="2">
+        <f t="shared" si="10"/>
+        <v>88.322121896162542</v>
+      </c>
+      <c r="K197" s="2">
+        <f t="shared" si="11"/>
+        <v>-6.3221218961625425</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198" s="2">
+        <v>81.8</v>
+      </c>
+      <c r="B198" s="2">
+        <v>82</v>
+      </c>
+      <c r="D198" s="2">
+        <f t="shared" si="9"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="J198" s="2">
+        <f t="shared" si="10"/>
+        <v>88.422121896162537</v>
+      </c>
+      <c r="K198" s="2">
+        <f t="shared" si="11"/>
+        <v>-6.4221218961625368</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199" s="2">
+        <v>82</v>
+      </c>
+      <c r="B199" s="2">
+        <v>82</v>
+      </c>
+      <c r="D199" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J199" s="2">
+        <f t="shared" si="10"/>
+        <v>88.62212189616254</v>
+      </c>
+      <c r="K199" s="2">
+        <f t="shared" si="11"/>
+        <v>-6.6221218961625397</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200" s="2">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="B200" s="2">
+        <v>82</v>
+      </c>
+      <c r="D200" s="2">
+        <f t="shared" si="9"/>
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="J200" s="2">
+        <f t="shared" si="10"/>
+        <v>88.522121896162545</v>
+      </c>
+      <c r="K200" s="2">
+        <f t="shared" si="11"/>
+        <v>-6.5221218961625453</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201" s="2">
+        <v>81.5</v>
+      </c>
+      <c r="B201" s="2">
+        <v>82</v>
+      </c>
+      <c r="D201" s="2">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="J201" s="2">
+        <f t="shared" si="10"/>
+        <v>88.12212189616254</v>
+      </c>
+      <c r="K201" s="2">
+        <f t="shared" si="11"/>
+        <v>-6.1221218961625397</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202" s="2">
+        <v>81.5</v>
+      </c>
+      <c r="B202" s="2">
+        <v>82</v>
+      </c>
+      <c r="D202" s="2">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="J202" s="2">
+        <f t="shared" si="10"/>
+        <v>88.12212189616254</v>
+      </c>
+      <c r="K202" s="2">
+        <f t="shared" si="11"/>
+        <v>-6.1221218961625397</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203" s="2">
+        <v>81.7</v>
+      </c>
+      <c r="B203" s="2">
+        <v>82</v>
+      </c>
+      <c r="D203" s="2">
+        <f t="shared" si="9"/>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="J203" s="2">
+        <f t="shared" si="10"/>
+        <v>88.322121896162542</v>
+      </c>
+      <c r="K203" s="2">
+        <f t="shared" si="11"/>
+        <v>-6.3221218961625425</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204" s="2">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="B204" s="2">
+        <v>82</v>
+      </c>
+      <c r="D204" s="2">
+        <f t="shared" si="9"/>
+        <v>2.4000000000000057</v>
+      </c>
+      <c r="J204" s="2">
+        <f t="shared" si="10"/>
+        <v>86.222121896162534</v>
+      </c>
+      <c r="K204" s="2">
+        <f t="shared" si="11"/>
+        <v>-4.222121896162534</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205" s="2">
+        <v>79.5</v>
+      </c>
+      <c r="B205" s="2">
+        <v>82</v>
+      </c>
+      <c r="D205" s="2">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="J205" s="2">
+        <f t="shared" si="10"/>
+        <v>86.12212189616254</v>
+      </c>
+      <c r="K205" s="2">
+        <f t="shared" si="11"/>
+        <v>-4.1221218961625397</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206" s="2">
+        <v>79.2</v>
+      </c>
+      <c r="B206" s="2">
+        <v>82</v>
+      </c>
+      <c r="D206" s="2">
+        <f t="shared" si="9"/>
+        <v>2.7999999999999972</v>
+      </c>
+      <c r="J206" s="2">
+        <f t="shared" si="10"/>
+        <v>85.822121896162542</v>
+      </c>
+      <c r="K206" s="2">
+        <f t="shared" si="11"/>
+        <v>-3.8221218961625425</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207" s="2">
+        <v>78.8</v>
+      </c>
+      <c r="B207" s="2">
+        <v>82</v>
+      </c>
+      <c r="D207" s="2">
+        <f t="shared" si="9"/>
+        <v>3.2000000000000028</v>
+      </c>
+      <c r="J207" s="2">
+        <f t="shared" si="10"/>
+        <v>85.422121896162537</v>
+      </c>
+      <c r="K207" s="2">
+        <f t="shared" si="11"/>
+        <v>-3.4221218961625368</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208" s="2">
+        <v>78.3</v>
+      </c>
+      <c r="B208" s="2">
+        <v>82</v>
+      </c>
+      <c r="D208" s="2">
+        <f t="shared" si="9"/>
+        <v>3.7000000000000028</v>
+      </c>
+      <c r="J208" s="2">
+        <f t="shared" si="10"/>
+        <v>84.922121896162537</v>
+      </c>
+      <c r="K208" s="2">
+        <f t="shared" si="11"/>
+        <v>-2.9221218961625368</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209" s="2">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="B209" s="2">
+        <v>82</v>
+      </c>
+      <c r="D209" s="2">
+        <f t="shared" si="9"/>
+        <v>3.9000000000000057</v>
+      </c>
+      <c r="J209" s="2">
+        <f t="shared" si="10"/>
+        <v>84.722121896162534</v>
+      </c>
+      <c r="K209" s="2">
+        <f t="shared" si="11"/>
+        <v>-2.722121896162534</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210" s="2">
+        <v>77.8</v>
+      </c>
+      <c r="B210" s="2">
+        <v>82</v>
+      </c>
+      <c r="D210" s="2">
+        <f t="shared" si="9"/>
+        <v>4.2000000000000028</v>
+      </c>
+      <c r="J210" s="2">
+        <f t="shared" si="10"/>
+        <v>84.422121896162537</v>
+      </c>
+      <c r="K210" s="2">
+        <f t="shared" si="11"/>
+        <v>-2.4221218961625368</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211" s="2">
+        <v>77.7</v>
+      </c>
+      <c r="B211" s="2">
+        <v>82</v>
+      </c>
+      <c r="D211" s="2">
+        <f t="shared" si="9"/>
+        <v>4.2999999999999972</v>
+      </c>
+      <c r="J211" s="2">
+        <f t="shared" si="10"/>
+        <v>84.322121896162542</v>
+      </c>
+      <c r="K211" s="2">
+        <f t="shared" si="11"/>
+        <v>-2.3221218961625425</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212" s="2">
+        <v>77.2</v>
+      </c>
+      <c r="B212" s="2">
+        <v>83</v>
+      </c>
+      <c r="D212" s="2">
+        <f t="shared" si="9"/>
+        <v>5.7999999999999972</v>
+      </c>
+      <c r="J212" s="2">
+        <f t="shared" si="10"/>
+        <v>83.822121896162542</v>
+      </c>
+      <c r="K212" s="2">
+        <f t="shared" si="11"/>
+        <v>-0.8221218961625425</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213" s="2">
+        <v>76.8</v>
+      </c>
+      <c r="B213" s="2">
+        <v>83</v>
+      </c>
+      <c r="D213" s="2">
+        <f t="shared" si="9"/>
+        <v>6.2000000000000028</v>
+      </c>
+      <c r="J213" s="2">
+        <f t="shared" si="10"/>
+        <v>83.422121896162537</v>
+      </c>
+      <c r="K213" s="2">
+        <f t="shared" si="11"/>
+        <v>-0.42212189616253681</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
+      <c r="A214" s="2">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="B214" s="2">
+        <v>83</v>
+      </c>
+      <c r="D214" s="2">
+        <f t="shared" si="9"/>
+        <v>6.5999999999999943</v>
+      </c>
+      <c r="J214" s="2">
+        <f t="shared" si="10"/>
+        <v>83.022121896162545</v>
+      </c>
+      <c r="K214" s="2">
+        <f t="shared" si="11"/>
+        <v>-2.212189616254534E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
+      <c r="A215" s="2">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="B215" s="2">
+        <v>83</v>
+      </c>
+      <c r="D215" s="2">
+        <f t="shared" si="9"/>
+        <v>6.9000000000000057</v>
+      </c>
+      <c r="J215" s="2">
+        <f t="shared" si="10"/>
+        <v>82.722121896162534</v>
+      </c>
+      <c r="K215" s="2">
+        <f t="shared" si="11"/>
+        <v>0.27787810383746603</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
+      <c r="A216" s="2">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="B216" s="2">
+        <v>83</v>
+      </c>
+      <c r="D216" s="2">
+        <f t="shared" si="9"/>
+        <v>7.0999999999999943</v>
+      </c>
+      <c r="J216" s="2">
+        <f t="shared" si="10"/>
+        <v>82.522121896162545</v>
+      </c>
+      <c r="K216" s="2">
+        <f t="shared" si="11"/>
+        <v>0.47787810383745466</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
+      <c r="A217" s="2">
+        <v>75.8</v>
+      </c>
+      <c r="B217" s="2">
+        <v>83</v>
+      </c>
+      <c r="D217" s="2">
+        <f t="shared" si="9"/>
+        <v>7.2000000000000028</v>
+      </c>
+      <c r="J217" s="2">
+        <f t="shared" si="10"/>
+        <v>82.422121896162537</v>
+      </c>
+      <c r="K217" s="2">
+        <f t="shared" si="11"/>
+        <v>0.57787810383746319</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
+      <c r="A218" s="2">
+        <v>75.5</v>
+      </c>
+      <c r="B218" s="2">
+        <v>83</v>
+      </c>
+      <c r="D218" s="2">
+        <f t="shared" si="9"/>
+        <v>7.5</v>
+      </c>
+      <c r="J218" s="2">
+        <f t="shared" si="10"/>
+        <v>82.12212189616254</v>
+      </c>
+      <c r="K218" s="2">
+        <f t="shared" si="11"/>
+        <v>0.87787810383746034</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
+      <c r="A219" s="2">
+        <v>75.5</v>
+      </c>
+      <c r="B219" s="2">
+        <v>83</v>
+      </c>
+      <c r="D219" s="2">
+        <f t="shared" si="9"/>
+        <v>7.5</v>
+      </c>
+      <c r="J219" s="2">
+        <f t="shared" si="10"/>
+        <v>82.12212189616254</v>
+      </c>
+      <c r="K219" s="2">
+        <f t="shared" si="11"/>
+        <v>0.87787810383746034</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="A220" s="2">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="B220" s="2">
+        <v>83</v>
+      </c>
+      <c r="D220" s="2">
+        <f t="shared" si="9"/>
+        <v>7.5999999999999943</v>
+      </c>
+      <c r="J220" s="2">
+        <f t="shared" si="10"/>
+        <v>82.022121896162545</v>
+      </c>
+      <c r="K220" s="2">
+        <f t="shared" si="11"/>
+        <v>0.97787810383745466</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
+      <c r="A221" s="2">
+        <v>75.2</v>
+      </c>
+      <c r="B221" s="2">
+        <v>83</v>
+      </c>
+      <c r="D221" s="2">
+        <f t="shared" si="9"/>
+        <v>7.7999999999999972</v>
+      </c>
+      <c r="J221" s="2">
+        <f t="shared" si="10"/>
+        <v>81.822121896162542</v>
+      </c>
+      <c r="K221" s="2">
+        <f t="shared" si="11"/>
+        <v>1.1778781038374575</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
+      <c r="A222" s="2">
+        <v>75</v>
+      </c>
+      <c r="B222" s="2">
+        <v>83</v>
+      </c>
+      <c r="D222" s="2">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="J222" s="2">
+        <f t="shared" si="10"/>
+        <v>81.62212189616254</v>
+      </c>
+      <c r="K222" s="2">
+        <f t="shared" si="11"/>
+        <v>1.3778781038374603</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="A223" s="2">
+        <v>74.7</v>
+      </c>
+      <c r="B223" s="2">
+        <v>83</v>
+      </c>
+      <c r="D223" s="2">
+        <f t="shared" si="9"/>
+        <v>8.2999999999999972</v>
+      </c>
+      <c r="J223" s="2">
+        <f t="shared" si="10"/>
+        <v>81.322121896162542</v>
+      </c>
+      <c r="K223" s="2">
+        <f t="shared" si="11"/>
+        <v>1.6778781038374575</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
+      <c r="A224" s="2">
+        <v>74.5</v>
+      </c>
+      <c r="B224" s="2">
+        <v>83</v>
+      </c>
+      <c r="D224" s="2">
+        <f t="shared" si="9"/>
+        <v>8.5</v>
+      </c>
+      <c r="J224" s="2">
+        <f t="shared" si="10"/>
+        <v>81.12212189616254</v>
+      </c>
+      <c r="K224" s="2">
+        <f t="shared" si="11"/>
+        <v>1.8778781038374603</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
+      <c r="A225" s="2">
+        <v>74.3</v>
+      </c>
+      <c r="B225" s="2">
+        <v>83</v>
+      </c>
+      <c r="D225" s="2">
+        <f t="shared" si="9"/>
+        <v>8.7000000000000028</v>
+      </c>
+      <c r="J225" s="2">
+        <f t="shared" si="10"/>
+        <v>80.922121896162537</v>
+      </c>
+      <c r="K225" s="2">
+        <f t="shared" si="11"/>
+        <v>2.0778781038374632</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="A226" s="2">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="B226" s="2">
+        <v>83</v>
+      </c>
+      <c r="D226" s="2">
+        <f t="shared" si="9"/>
+        <v>8.9000000000000057</v>
+      </c>
+      <c r="J226" s="2">
+        <f t="shared" si="10"/>
+        <v>80.722121896162534</v>
+      </c>
+      <c r="K226" s="2">
+        <f t="shared" si="11"/>
+        <v>2.277878103837466</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
+      <c r="A227" s="2">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="B227" s="2">
+        <v>83</v>
+      </c>
+      <c r="D227" s="2">
+        <f t="shared" si="9"/>
+        <v>9.0999999999999943</v>
+      </c>
+      <c r="J227" s="2">
+        <f t="shared" si="10"/>
+        <v>80.522121896162545</v>
+      </c>
+      <c r="K227" s="2">
+        <f t="shared" si="11"/>
+        <v>2.4778781038374547</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
+      <c r="A228" s="2">
+        <v>73.8</v>
+      </c>
+      <c r="B228" s="2">
+        <v>83</v>
+      </c>
+      <c r="D228" s="2">
+        <f t="shared" si="9"/>
+        <v>9.2000000000000028</v>
+      </c>
+      <c r="J228" s="2">
+        <f t="shared" si="10"/>
+        <v>80.422121896162537</v>
+      </c>
+      <c r="K228" s="2">
+        <f t="shared" si="11"/>
+        <v>2.5778781038374632</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
+      <c r="A229" s="2">
+        <v>74.2</v>
+      </c>
+      <c r="B229" s="2">
+        <v>83</v>
+      </c>
+      <c r="D229" s="2">
+        <f t="shared" si="9"/>
+        <v>8.7999999999999972</v>
+      </c>
+      <c r="J229" s="2">
+        <f t="shared" si="10"/>
+        <v>80.822121896162542</v>
+      </c>
+      <c r="K229" s="2">
+        <f t="shared" si="11"/>
+        <v>2.1778781038374575</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
+      <c r="A230" s="2">
+        <v>74.3</v>
+      </c>
+      <c r="B230" s="2">
+        <v>83</v>
+      </c>
+      <c r="D230" s="2">
+        <f t="shared" si="9"/>
+        <v>8.7000000000000028</v>
+      </c>
+      <c r="J230" s="2">
+        <f t="shared" si="10"/>
+        <v>80.922121896162537</v>
+      </c>
+      <c r="K230" s="2">
+        <f t="shared" si="11"/>
+        <v>2.0778781038374632</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
+      <c r="A231" s="2">
+        <v>76</v>
+      </c>
+      <c r="B231" s="2">
+        <v>83</v>
+      </c>
+      <c r="D231" s="2">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="J231" s="2">
+        <f t="shared" si="10"/>
+        <v>82.62212189616254</v>
+      </c>
+      <c r="K231" s="2">
+        <f t="shared" si="11"/>
+        <v>0.37787810383746034</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
+      <c r="A232" s="2">
+        <v>76.3</v>
+      </c>
+      <c r="B232" s="2">
+        <v>83</v>
+      </c>
+      <c r="D232" s="2">
+        <f t="shared" si="9"/>
+        <v>6.7000000000000028</v>
+      </c>
+      <c r="J232" s="2">
+        <f t="shared" si="10"/>
+        <v>82.922121896162537</v>
+      </c>
+      <c r="K232" s="2">
+        <f t="shared" si="11"/>
+        <v>7.7878103837463186E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
+      <c r="A233" s="2">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="B233" s="2">
+        <v>83</v>
+      </c>
+      <c r="D233" s="2">
+        <f t="shared" si="9"/>
+        <v>6.4000000000000057</v>
+      </c>
+      <c r="J233" s="2">
+        <f t="shared" si="10"/>
+        <v>83.222121896162534</v>
+      </c>
+      <c r="K233" s="2">
+        <f t="shared" si="11"/>
+        <v>-0.22212189616253397</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
+      <c r="A234" s="2">
+        <v>77.2</v>
+      </c>
+      <c r="B234" s="2">
+        <v>83</v>
+      </c>
+      <c r="D234" s="2">
+        <f t="shared" si="9"/>
+        <v>5.7999999999999972</v>
+      </c>
+      <c r="J234" s="2">
+        <f t="shared" si="10"/>
+        <v>83.822121896162542</v>
+      </c>
+      <c r="K234" s="2">
+        <f t="shared" si="11"/>
+        <v>-0.8221218961625425</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
+      <c r="A235" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="B235" s="2">
+        <v>83</v>
+      </c>
+      <c r="D235" s="2">
+        <f t="shared" si="9"/>
+        <v>5.5</v>
+      </c>
+      <c r="J235" s="2">
+        <f t="shared" si="10"/>
+        <v>84.12212189616254</v>
+      </c>
+      <c r="K235" s="2">
+        <f t="shared" si="11"/>
+        <v>-1.1221218961625397</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
+      <c r="A236" s="2">
+        <v>77.8</v>
+      </c>
+      <c r="B236" s="2">
+        <v>83</v>
+      </c>
+      <c r="D236" s="2">
+        <f t="shared" si="9"/>
+        <v>5.2000000000000028</v>
+      </c>
+      <c r="J236" s="2">
+        <f t="shared" si="10"/>
+        <v>84.422121896162537</v>
+      </c>
+      <c r="K236" s="2">
+        <f t="shared" si="11"/>
+        <v>-1.4221218961625368</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
+      <c r="A237" s="2">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="B237" s="2">
+        <v>83</v>
+      </c>
+      <c r="D237" s="2">
+        <f t="shared" si="9"/>
+        <v>5.4000000000000057</v>
+      </c>
+      <c r="J237" s="2">
+        <f t="shared" si="10"/>
+        <v>84.222121896162534</v>
+      </c>
+      <c r="K237" s="2">
+        <f t="shared" si="11"/>
+        <v>-1.222121896162534</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
+      <c r="A238" s="2">
+        <v>77</v>
+      </c>
+      <c r="B238" s="2">
+        <v>83</v>
+      </c>
+      <c r="D238" s="2">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="J238" s="2">
+        <f t="shared" si="10"/>
+        <v>83.62212189616254</v>
+      </c>
+      <c r="K238" s="2">
+        <f t="shared" si="11"/>
+        <v>-0.62212189616253966</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
+      <c r="A239" s="2">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="B239" s="2">
+        <v>83</v>
+      </c>
+      <c r="D239" s="2">
+        <f t="shared" si="9"/>
+        <v>7.0999999999999943</v>
+      </c>
+      <c r="J239" s="2">
+        <f t="shared" si="10"/>
+        <v>82.522121896162545</v>
+      </c>
+      <c r="K239" s="2">
+        <f t="shared" si="11"/>
+        <v>0.47787810383745466</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
+      <c r="A240" s="2">
+        <v>75.3</v>
+      </c>
+      <c r="B240" s="2">
+        <v>83</v>
+      </c>
+      <c r="D240" s="2">
+        <f t="shared" si="9"/>
+        <v>7.7000000000000028</v>
+      </c>
+      <c r="J240" s="2">
+        <f t="shared" si="10"/>
+        <v>81.922121896162537</v>
+      </c>
+      <c r="K240" s="2">
+        <f t="shared" si="11"/>
+        <v>1.0778781038374632</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
+      <c r="A241" s="2">
+        <v>74.8</v>
+      </c>
+      <c r="B241" s="2">
+        <v>83</v>
+      </c>
+      <c r="D241" s="2">
+        <f t="shared" si="9"/>
+        <v>8.2000000000000028</v>
+      </c>
+      <c r="J241" s="2">
+        <f t="shared" si="10"/>
+        <v>81.422121896162537</v>
+      </c>
+      <c r="K241" s="2">
+        <f t="shared" si="11"/>
+        <v>1.5778781038374632</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
+      <c r="A242" s="2">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="B242" s="2">
+        <v>83</v>
+      </c>
+      <c r="D242" s="2">
+        <f t="shared" si="9"/>
+        <v>8.9000000000000057</v>
+      </c>
+      <c r="J242" s="2">
+        <f t="shared" si="10"/>
+        <v>80.722121896162534</v>
+      </c>
+      <c r="K242" s="2">
+        <f t="shared" si="11"/>
+        <v>2.277878103837466</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
+      <c r="A243" s="2">
+        <v>72.5</v>
+      </c>
+      <c r="B243" s="2">
+        <v>83</v>
+      </c>
+      <c r="D243" s="2">
+        <f t="shared" si="9"/>
+        <v>10.5</v>
+      </c>
+      <c r="J243" s="2">
+        <f t="shared" si="10"/>
+        <v>79.12212189616254</v>
+      </c>
+      <c r="K243" s="2">
+        <f t="shared" si="11"/>
+        <v>3.8778781038374603</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
+      <c r="A244" s="2">
+        <v>70.5</v>
+      </c>
+      <c r="B244" s="2">
+        <v>83</v>
+      </c>
+      <c r="D244" s="2">
+        <f t="shared" si="9"/>
+        <v>12.5</v>
+      </c>
+      <c r="J244" s="2">
+        <f t="shared" si="10"/>
+        <v>77.12212189616254</v>
+      </c>
+      <c r="K244" s="2">
+        <f t="shared" si="11"/>
+        <v>5.8778781038374603</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
+      <c r="A245" s="2">
+        <v>69.3</v>
+      </c>
+      <c r="B245" s="2">
+        <v>83</v>
+      </c>
+      <c r="D245" s="2">
+        <f t="shared" si="9"/>
+        <v>13.700000000000003</v>
+      </c>
+      <c r="J245" s="2">
+        <f t="shared" si="10"/>
+        <v>75.922121896162537</v>
+      </c>
+      <c r="K245" s="2">
+        <f t="shared" si="11"/>
+        <v>7.0778781038374632</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
+      <c r="A246" s="2">
+        <v>69</v>
+      </c>
+      <c r="B246" s="2">
+        <v>83</v>
+      </c>
+      <c r="D246" s="2">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="J246" s="2">
+        <f t="shared" si="10"/>
+        <v>75.62212189616254</v>
+      </c>
+      <c r="K246" s="2">
+        <f t="shared" si="11"/>
+        <v>7.3778781038374603</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
+      <c r="A247" s="2">
+        <v>68.5</v>
+      </c>
+      <c r="B247" s="2">
+        <v>83</v>
+      </c>
+      <c r="D247" s="2">
+        <f t="shared" si="9"/>
+        <v>14.5</v>
+      </c>
+      <c r="J247" s="2">
+        <f t="shared" si="10"/>
+        <v>75.12212189616254</v>
+      </c>
+      <c r="K247" s="2">
+        <f t="shared" si="11"/>
+        <v>7.8778781038374603</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
+      <c r="A248" s="2">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="B248" s="2">
+        <v>83</v>
+      </c>
+      <c r="D248" s="2">
+        <f t="shared" si="9"/>
+        <v>14.900000000000006</v>
+      </c>
+      <c r="J248" s="2">
+        <f t="shared" si="10"/>
+        <v>74.722121896162534</v>
+      </c>
+      <c r="K248" s="2">
+        <f t="shared" si="11"/>
+        <v>8.277878103837466</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
+      <c r="A249" s="2">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="B249" s="2">
+        <v>83</v>
+      </c>
+      <c r="D249" s="2">
+        <f t="shared" si="9"/>
+        <v>14.599999999999994</v>
+      </c>
+      <c r="J249" s="2">
+        <f t="shared" si="10"/>
+        <v>75.022121896162545</v>
+      </c>
+      <c r="K249" s="2">
+        <f t="shared" si="11"/>
+        <v>7.9778781038374547</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
+      <c r="A250" s="2">
+        <v>68.7</v>
+      </c>
+      <c r="B250" s="2">
+        <v>83</v>
+      </c>
+      <c r="D250" s="2">
+        <f t="shared" si="9"/>
+        <v>14.299999999999997</v>
+      </c>
+      <c r="J250" s="2">
+        <f t="shared" si="10"/>
+        <v>75.322121896162542</v>
+      </c>
+      <c r="K250" s="2">
+        <f t="shared" si="11"/>
+        <v>7.6778781038374575</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
+      <c r="A251" s="2">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="B251" s="2">
+        <v>83</v>
+      </c>
+      <c r="D251" s="2">
+        <f t="shared" si="9"/>
+        <v>14.099999999999994</v>
+      </c>
+      <c r="J251" s="2">
+        <f t="shared" si="10"/>
+        <v>75.522121896162545</v>
+      </c>
+      <c r="K251" s="2">
+        <f t="shared" si="11"/>
+        <v>7.4778781038374547</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
+      <c r="A252" s="2">
+        <v>70.2</v>
+      </c>
+      <c r="B252" s="2">
+        <v>83</v>
+      </c>
+      <c r="D252" s="2">
+        <f t="shared" si="9"/>
+        <v>12.799999999999997</v>
+      </c>
+      <c r="J252" s="2">
+        <f t="shared" si="10"/>
+        <v>76.822121896162542</v>
+      </c>
+      <c r="K252" s="2">
+        <f t="shared" si="11"/>
+        <v>6.1778781038374575</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11">
+      <c r="A253" s="2">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="B253" s="2">
+        <v>83</v>
+      </c>
+      <c r="D253" s="2">
+        <f t="shared" si="9"/>
+        <v>12.099999999999994</v>
+      </c>
+      <c r="J253" s="2">
+        <f t="shared" si="10"/>
+        <v>77.522121896162545</v>
+      </c>
+      <c r="K253" s="2">
+        <f t="shared" si="11"/>
+        <v>5.4778781038374547</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11">
+      <c r="A254" s="2">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="B254" s="2">
+        <v>83</v>
+      </c>
+      <c r="D254" s="2">
+        <f t="shared" si="9"/>
+        <v>11.599999999999994</v>
+      </c>
+      <c r="J254" s="2">
+        <f t="shared" si="10"/>
+        <v>78.022121896162545</v>
+      </c>
+      <c r="K254" s="2">
+        <f t="shared" si="11"/>
+        <v>4.9778781038374547</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
+      <c r="A255" s="2">
+        <v>72.3</v>
+      </c>
+      <c r="B255" s="2">
+        <v>83</v>
+      </c>
+      <c r="D255" s="2">
+        <f t="shared" si="9"/>
+        <v>10.700000000000003</v>
+      </c>
+      <c r="J255" s="2">
+        <f t="shared" si="10"/>
+        <v>78.922121896162537</v>
+      </c>
+      <c r="K255" s="2">
+        <f t="shared" si="11"/>
+        <v>4.0778781038374632</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
+      <c r="A256" s="2">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="B256" s="2">
+        <v>83</v>
+      </c>
+      <c r="D256" s="2">
+        <f t="shared" si="9"/>
+        <v>9.5999999999999943</v>
+      </c>
+      <c r="J256" s="2">
+        <f t="shared" si="10"/>
+        <v>80.022121896162545</v>
+      </c>
+      <c r="K256" s="2">
+        <f t="shared" si="11"/>
+        <v>2.9778781038374547</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11">
+      <c r="A257" s="2">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="B257" s="2">
+        <v>83</v>
+      </c>
+      <c r="D257" s="2">
+        <f t="shared" si="9"/>
+        <v>9.4000000000000057</v>
+      </c>
+      <c r="J257" s="2">
+        <f t="shared" si="10"/>
+        <v>80.222121896162534</v>
+      </c>
+      <c r="K257" s="2">
+        <f t="shared" si="11"/>
+        <v>2.777878103837466</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11">
+      <c r="A258" s="2">
+        <v>73.8</v>
+      </c>
+      <c r="B258" s="2">
+        <v>83</v>
+      </c>
+      <c r="D258" s="2">
+        <f t="shared" si="9"/>
+        <v>9.2000000000000028</v>
+      </c>
+      <c r="J258" s="2">
+        <f t="shared" si="10"/>
+        <v>80.422121896162537</v>
+      </c>
+      <c r="K258" s="2">
+        <f t="shared" si="11"/>
+        <v>2.5778781038374632</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11">
+      <c r="A259" s="2">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="B259" s="2">
+        <v>83</v>
+      </c>
+      <c r="D259" s="2">
+        <f t="shared" ref="D259:D322" si="12">B259-A259</f>
+        <v>8.9000000000000057</v>
+      </c>
+      <c r="J259" s="2">
+        <f t="shared" ref="J259:J322" si="13">A259+$G$7</f>
+        <v>80.722121896162534</v>
+      </c>
+      <c r="K259" s="2">
+        <f t="shared" ref="K259:K322" si="14">B259-J259</f>
+        <v>2.277878103837466</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11">
+      <c r="A260" s="2">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="B260" s="2">
+        <v>86</v>
+      </c>
+      <c r="D260" s="2">
+        <f t="shared" si="12"/>
+        <v>11.599999999999994</v>
+      </c>
+      <c r="J260" s="2">
+        <f t="shared" si="13"/>
+        <v>81.022121896162545</v>
+      </c>
+      <c r="K260" s="2">
+        <f t="shared" si="14"/>
+        <v>4.9778781038374547</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11">
+      <c r="A261" s="2">
+        <v>75</v>
+      </c>
+      <c r="B261" s="2">
+        <v>86</v>
+      </c>
+      <c r="D261" s="2">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="J261" s="2">
+        <f t="shared" si="13"/>
+        <v>81.62212189616254</v>
+      </c>
+      <c r="K261" s="2">
+        <f t="shared" si="14"/>
+        <v>4.3778781038374603</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11">
+      <c r="A262" s="2">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="B262" s="2">
+        <v>86</v>
+      </c>
+      <c r="D262" s="2">
+        <f t="shared" si="12"/>
+        <v>10.900000000000006</v>
+      </c>
+      <c r="J262" s="2">
+        <f t="shared" si="13"/>
+        <v>81.722121896162534</v>
+      </c>
+      <c r="K262" s="2">
+        <f t="shared" si="14"/>
+        <v>4.277878103837466</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11">
+      <c r="A263" s="2">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="B263" s="2">
+        <v>86</v>
+      </c>
+      <c r="D263" s="2">
+        <f t="shared" si="12"/>
+        <v>10.900000000000006</v>
+      </c>
+      <c r="J263" s="2">
+        <f t="shared" si="13"/>
+        <v>81.722121896162534</v>
+      </c>
+      <c r="K263" s="2">
+        <f t="shared" si="14"/>
+        <v>4.277878103837466</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11">
+      <c r="A264" s="2">
+        <v>75.2</v>
+      </c>
+      <c r="B264" s="2">
+        <v>86</v>
+      </c>
+      <c r="D264" s="2">
+        <f t="shared" si="12"/>
+        <v>10.799999999999997</v>
+      </c>
+      <c r="J264" s="2">
+        <f t="shared" si="13"/>
+        <v>81.822121896162542</v>
+      </c>
+      <c r="K264" s="2">
+        <f t="shared" si="14"/>
+        <v>4.1778781038374575</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11">
+      <c r="A265" s="2">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="B265" s="2">
+        <v>86</v>
+      </c>
+      <c r="D265" s="2">
+        <f t="shared" si="12"/>
+        <v>11.099999999999994</v>
+      </c>
+      <c r="J265" s="2">
+        <f t="shared" si="13"/>
+        <v>81.522121896162545</v>
+      </c>
+      <c r="K265" s="2">
+        <f t="shared" si="14"/>
+        <v>4.4778781038374547</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
+      <c r="A266" s="2">
+        <v>74.7</v>
+      </c>
+      <c r="B266" s="2">
+        <v>86</v>
+      </c>
+      <c r="D266" s="2">
+        <f t="shared" si="12"/>
+        <v>11.299999999999997</v>
+      </c>
+      <c r="J266" s="2">
+        <f t="shared" si="13"/>
+        <v>81.322121896162542</v>
+      </c>
+      <c r="K266" s="2">
+        <f t="shared" si="14"/>
+        <v>4.6778781038374575</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11">
+      <c r="A267" s="2">
+        <v>74.3</v>
+      </c>
+      <c r="B267" s="2">
+        <v>86</v>
+      </c>
+      <c r="D267" s="2">
+        <f t="shared" si="12"/>
+        <v>11.700000000000003</v>
+      </c>
+      <c r="J267" s="2">
+        <f t="shared" si="13"/>
+        <v>80.922121896162537</v>
+      </c>
+      <c r="K267" s="2">
+        <f t="shared" si="14"/>
+        <v>5.0778781038374632</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11">
+      <c r="A268" s="2">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="B268" s="2">
+        <v>86</v>
+      </c>
+      <c r="D268" s="2">
+        <f t="shared" si="12"/>
+        <v>11.400000000000006</v>
+      </c>
+      <c r="J268" s="2">
+        <f t="shared" si="13"/>
+        <v>81.222121896162534</v>
+      </c>
+      <c r="K268" s="2">
+        <f t="shared" si="14"/>
+        <v>4.777878103837466</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
+      <c r="A269" s="2">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="B269" s="2">
+        <v>86</v>
+      </c>
+      <c r="D269" s="2">
+        <f t="shared" si="12"/>
+        <v>11.400000000000006</v>
+      </c>
+      <c r="J269" s="2">
+        <f t="shared" si="13"/>
+        <v>81.222121896162534</v>
+      </c>
+      <c r="K269" s="2">
+        <f t="shared" si="14"/>
+        <v>4.777878103837466</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11">
+      <c r="A270" s="2">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="B270" s="2">
+        <v>86</v>
+      </c>
+      <c r="D270" s="2">
+        <f t="shared" si="12"/>
+        <v>11.599999999999994</v>
+      </c>
+      <c r="J270" s="2">
+        <f t="shared" si="13"/>
+        <v>81.022121896162545</v>
+      </c>
+      <c r="K270" s="2">
+        <f t="shared" si="14"/>
+        <v>4.9778781038374547</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11">
+      <c r="A271" s="2">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="B271" s="2">
+        <v>86</v>
+      </c>
+      <c r="D271" s="2">
+        <f t="shared" si="12"/>
+        <v>11.599999999999994</v>
+      </c>
+      <c r="J271" s="2">
+        <f t="shared" si="13"/>
+        <v>81.022121896162545</v>
+      </c>
+      <c r="K271" s="2">
+        <f t="shared" si="14"/>
+        <v>4.9778781038374547</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11">
+      <c r="A272" s="2">
+        <v>74.3</v>
+      </c>
+      <c r="B272" s="2">
+        <v>86</v>
+      </c>
+      <c r="D272" s="2">
+        <f t="shared" si="12"/>
+        <v>11.700000000000003</v>
+      </c>
+      <c r="J272" s="2">
+        <f t="shared" si="13"/>
+        <v>80.922121896162537</v>
+      </c>
+      <c r="K272" s="2">
+        <f t="shared" si="14"/>
+        <v>5.0778781038374632</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
+      <c r="A273" s="2">
+        <v>74.3</v>
+      </c>
+      <c r="B273" s="2">
+        <v>86</v>
+      </c>
+      <c r="D273" s="2">
+        <f t="shared" si="12"/>
+        <v>11.700000000000003</v>
+      </c>
+      <c r="J273" s="2">
+        <f t="shared" si="13"/>
+        <v>80.922121896162537</v>
+      </c>
+      <c r="K273" s="2">
+        <f t="shared" si="14"/>
+        <v>5.0778781038374632</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
+      <c r="A274" s="2">
+        <v>74</v>
+      </c>
+      <c r="B274" s="2">
+        <v>86</v>
+      </c>
+      <c r="D274" s="2">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="J274" s="2">
+        <f t="shared" si="13"/>
+        <v>80.62212189616254</v>
+      </c>
+      <c r="K274" s="2">
+        <f t="shared" si="14"/>
+        <v>5.3778781038374603</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11">
+      <c r="A275" s="2">
+        <v>74.2</v>
+      </c>
+      <c r="B275" s="2">
+        <v>86</v>
+      </c>
+      <c r="D275" s="2">
+        <f t="shared" si="12"/>
+        <v>11.799999999999997</v>
+      </c>
+      <c r="J275" s="2">
+        <f t="shared" si="13"/>
+        <v>80.822121896162542</v>
+      </c>
+      <c r="K275" s="2">
+        <f t="shared" si="14"/>
+        <v>5.1778781038374575</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11">
+      <c r="A276" s="2">
+        <v>74.2</v>
+      </c>
+      <c r="B276" s="2">
+        <v>86</v>
+      </c>
+      <c r="D276" s="2">
+        <f t="shared" si="12"/>
+        <v>11.799999999999997</v>
+      </c>
+      <c r="J276" s="2">
+        <f t="shared" si="13"/>
+        <v>80.822121896162542</v>
+      </c>
+      <c r="K276" s="2">
+        <f t="shared" si="14"/>
+        <v>5.1778781038374575</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11">
+      <c r="A277" s="2">
+        <v>74.2</v>
+      </c>
+      <c r="B277" s="2">
+        <v>86</v>
+      </c>
+      <c r="D277" s="2">
+        <f t="shared" si="12"/>
+        <v>11.799999999999997</v>
+      </c>
+      <c r="J277" s="2">
+        <f t="shared" si="13"/>
+        <v>80.822121896162542</v>
+      </c>
+      <c r="K277" s="2">
+        <f t="shared" si="14"/>
+        <v>5.1778781038374575</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
+      <c r="A278" s="2">
+        <v>74</v>
+      </c>
+      <c r="B278" s="2">
+        <v>86</v>
+      </c>
+      <c r="D278" s="2">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="J278" s="2">
+        <f t="shared" si="13"/>
+        <v>80.62212189616254</v>
+      </c>
+      <c r="K278" s="2">
+        <f t="shared" si="14"/>
+        <v>5.3778781038374603</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11">
+      <c r="A279" s="2">
+        <v>73.7</v>
+      </c>
+      <c r="B279" s="2">
+        <v>86</v>
+      </c>
+      <c r="D279" s="2">
+        <f t="shared" si="12"/>
+        <v>12.299999999999997</v>
+      </c>
+      <c r="J279" s="2">
+        <f t="shared" si="13"/>
+        <v>80.322121896162542</v>
+      </c>
+      <c r="K279" s="2">
+        <f t="shared" si="14"/>
+        <v>5.6778781038374575</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11">
+      <c r="A280" s="2">
+        <v>73.8</v>
+      </c>
+      <c r="B280" s="2">
+        <v>86</v>
+      </c>
+      <c r="D280" s="2">
+        <f t="shared" si="12"/>
+        <v>12.200000000000003</v>
+      </c>
+      <c r="J280" s="2">
+        <f t="shared" si="13"/>
+        <v>80.422121896162537</v>
+      </c>
+      <c r="K280" s="2">
+        <f t="shared" si="14"/>
+        <v>5.5778781038374632</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
+      <c r="A281" s="2">
+        <v>73.8</v>
+      </c>
+      <c r="B281" s="2">
+        <v>86</v>
+      </c>
+      <c r="D281" s="2">
+        <f t="shared" si="12"/>
+        <v>12.200000000000003</v>
+      </c>
+      <c r="J281" s="2">
+        <f t="shared" si="13"/>
+        <v>80.422121896162537</v>
+      </c>
+      <c r="K281" s="2">
+        <f t="shared" si="14"/>
+        <v>5.5778781038374632</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11">
+      <c r="A282" s="2">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="B282" s="2">
+        <v>86</v>
+      </c>
+      <c r="D282" s="2">
+        <f t="shared" si="12"/>
+        <v>12.599999999999994</v>
+      </c>
+      <c r="J282" s="2">
+        <f t="shared" si="13"/>
+        <v>80.022121896162545</v>
+      </c>
+      <c r="K282" s="2">
+        <f t="shared" si="14"/>
+        <v>5.9778781038374547</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
+      <c r="A283" s="2">
+        <v>73.2</v>
+      </c>
+      <c r="B283" s="2">
+        <v>86</v>
+      </c>
+      <c r="D283" s="2">
+        <f t="shared" si="12"/>
+        <v>12.799999999999997</v>
+      </c>
+      <c r="J283" s="2">
+        <f t="shared" si="13"/>
+        <v>79.822121896162542</v>
+      </c>
+      <c r="K283" s="2">
+        <f t="shared" si="14"/>
+        <v>6.1778781038374575</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
+      <c r="A284" s="2">
+        <v>73.2</v>
+      </c>
+      <c r="B284" s="2">
+        <v>86</v>
+      </c>
+      <c r="D284" s="2">
+        <f t="shared" si="12"/>
+        <v>12.799999999999997</v>
+      </c>
+      <c r="J284" s="2">
+        <f t="shared" si="13"/>
+        <v>79.822121896162542</v>
+      </c>
+      <c r="K284" s="2">
+        <f t="shared" si="14"/>
+        <v>6.1778781038374575</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
+      <c r="A285" s="2">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="B285" s="2">
+        <v>86</v>
+      </c>
+      <c r="D285" s="2">
+        <f t="shared" si="12"/>
+        <v>13.099999999999994</v>
+      </c>
+      <c r="J285" s="2">
+        <f t="shared" si="13"/>
+        <v>79.522121896162545</v>
+      </c>
+      <c r="K285" s="2">
+        <f t="shared" si="14"/>
+        <v>6.4778781038374547</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
+      <c r="A286" s="2">
+        <v>72.8</v>
+      </c>
+      <c r="B286" s="2">
+        <v>86</v>
+      </c>
+      <c r="D286" s="2">
+        <f t="shared" si="12"/>
+        <v>13.200000000000003</v>
+      </c>
+      <c r="J286" s="2">
+        <f t="shared" si="13"/>
+        <v>79.422121896162537</v>
+      </c>
+      <c r="K286" s="2">
+        <f t="shared" si="14"/>
+        <v>6.5778781038374632</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
+      <c r="A287" s="2">
+        <v>72.8</v>
+      </c>
+      <c r="B287" s="2">
+        <v>86</v>
+      </c>
+      <c r="D287" s="2">
+        <f t="shared" si="12"/>
+        <v>13.200000000000003</v>
+      </c>
+      <c r="J287" s="2">
+        <f t="shared" si="13"/>
+        <v>79.422121896162537</v>
+      </c>
+      <c r="K287" s="2">
+        <f t="shared" si="14"/>
+        <v>6.5778781038374632</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
+      <c r="A288" s="2">
+        <v>72.2</v>
+      </c>
+      <c r="B288" s="2">
+        <v>86</v>
+      </c>
+      <c r="D288" s="2">
+        <f t="shared" si="12"/>
+        <v>13.799999999999997</v>
+      </c>
+      <c r="J288" s="2">
+        <f t="shared" si="13"/>
+        <v>78.822121896162542</v>
+      </c>
+      <c r="K288" s="2">
+        <f t="shared" si="14"/>
+        <v>7.1778781038374575</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
+      <c r="A289" s="2">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="B289" s="2">
+        <v>86</v>
+      </c>
+      <c r="D289" s="2">
+        <f t="shared" si="12"/>
+        <v>13.900000000000006</v>
+      </c>
+      <c r="J289" s="2">
+        <f t="shared" si="13"/>
+        <v>78.722121896162534</v>
+      </c>
+      <c r="K289" s="2">
+        <f t="shared" si="14"/>
+        <v>7.277878103837466</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11">
+      <c r="A290" s="2">
+        <v>72.5</v>
+      </c>
+      <c r="B290" s="2">
+        <v>83</v>
+      </c>
+      <c r="D290" s="2">
+        <f t="shared" si="12"/>
+        <v>10.5</v>
+      </c>
+      <c r="J290" s="2">
+        <f t="shared" si="13"/>
+        <v>79.12212189616254</v>
+      </c>
+      <c r="K290" s="2">
+        <f t="shared" si="14"/>
+        <v>3.8778781038374603</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11">
+      <c r="A291" s="2">
+        <v>73</v>
+      </c>
+      <c r="B291" s="2">
+        <v>83</v>
+      </c>
+      <c r="D291" s="2">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="J291" s="2">
+        <f t="shared" si="13"/>
+        <v>79.62212189616254</v>
+      </c>
+      <c r="K291" s="2">
+        <f t="shared" si="14"/>
+        <v>3.3778781038374603</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11">
+      <c r="A292" s="2">
+        <v>73.2</v>
+      </c>
+      <c r="B292" s="2">
+        <v>83</v>
+      </c>
+      <c r="D292" s="2">
+        <f t="shared" si="12"/>
+        <v>9.7999999999999972</v>
+      </c>
+      <c r="J292" s="2">
+        <f t="shared" si="13"/>
+        <v>79.822121896162542</v>
+      </c>
+      <c r="K292" s="2">
+        <f t="shared" si="14"/>
+        <v>3.1778781038374575</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11">
+      <c r="A293" s="2">
+        <v>74</v>
+      </c>
+      <c r="B293" s="2">
+        <v>83</v>
+      </c>
+      <c r="D293" s="2">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="J293" s="2">
+        <f t="shared" si="13"/>
+        <v>80.62212189616254</v>
+      </c>
+      <c r="K293" s="2">
+        <f t="shared" si="14"/>
+        <v>2.3778781038374603</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
+      <c r="A294" s="2">
+        <v>74.5</v>
+      </c>
+      <c r="B294" s="2">
+        <v>83</v>
+      </c>
+      <c r="D294" s="2">
+        <f t="shared" si="12"/>
+        <v>8.5</v>
+      </c>
+      <c r="J294" s="2">
+        <f t="shared" si="13"/>
+        <v>81.12212189616254</v>
+      </c>
+      <c r="K294" s="2">
+        <f t="shared" si="14"/>
+        <v>1.8778781038374603</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
+      <c r="A295" s="2">
+        <v>74.8</v>
+      </c>
+      <c r="B295" s="2">
+        <v>83</v>
+      </c>
+      <c r="D295" s="2">
+        <f t="shared" si="12"/>
+        <v>8.2000000000000028</v>
+      </c>
+      <c r="J295" s="2">
+        <f t="shared" si="13"/>
+        <v>81.422121896162537</v>
+      </c>
+      <c r="K295" s="2">
+        <f t="shared" si="14"/>
+        <v>1.5778781038374632</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11">
+      <c r="A296" s="2">
+        <v>74.8</v>
+      </c>
+      <c r="B296" s="2">
+        <v>83</v>
+      </c>
+      <c r="D296" s="2">
+        <f t="shared" si="12"/>
+        <v>8.2000000000000028</v>
+      </c>
+      <c r="J296" s="2">
+        <f t="shared" si="13"/>
+        <v>81.422121896162537</v>
+      </c>
+      <c r="K296" s="2">
+        <f t="shared" si="14"/>
+        <v>1.5778781038374632</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11">
+      <c r="A297" s="2">
+        <v>74.8</v>
+      </c>
+      <c r="B297" s="2">
+        <v>83</v>
+      </c>
+      <c r="D297" s="2">
+        <f t="shared" si="12"/>
+        <v>8.2000000000000028</v>
+      </c>
+      <c r="J297" s="2">
+        <f t="shared" si="13"/>
+        <v>81.422121896162537</v>
+      </c>
+      <c r="K297" s="2">
+        <f t="shared" si="14"/>
+        <v>1.5778781038374632</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11">
+      <c r="A298" s="2">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="B298" s="2">
+        <v>83</v>
+      </c>
+      <c r="D298" s="2">
+        <f t="shared" si="12"/>
+        <v>5.4000000000000057</v>
+      </c>
+      <c r="J298" s="2">
+        <f t="shared" si="13"/>
+        <v>84.222121896162534</v>
+      </c>
+      <c r="K298" s="2">
+        <f t="shared" si="14"/>
+        <v>-1.222121896162534</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11">
+      <c r="A299" s="2">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="B299" s="2">
+        <v>83</v>
+      </c>
+      <c r="D299" s="2">
+        <f t="shared" si="12"/>
+        <v>5.5999999999999943</v>
+      </c>
+      <c r="J299" s="2">
+        <f t="shared" si="13"/>
+        <v>84.022121896162545</v>
+      </c>
+      <c r="K299" s="2">
+        <f t="shared" si="14"/>
+        <v>-1.0221218961625453</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
+      <c r="A300" s="2">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="B300" s="2">
+        <v>83</v>
+      </c>
+      <c r="D300" s="2">
+        <f t="shared" si="12"/>
+        <v>6.0999999999999943</v>
+      </c>
+      <c r="J300" s="2">
+        <f t="shared" si="13"/>
+        <v>83.522121896162545</v>
+      </c>
+      <c r="K300" s="2">
+        <f t="shared" si="14"/>
+        <v>-0.52212189616254534</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
+      <c r="A301" s="2">
+        <v>76.7</v>
+      </c>
+      <c r="B301" s="2">
+        <v>83</v>
+      </c>
+      <c r="D301" s="2">
+        <f t="shared" si="12"/>
+        <v>6.2999999999999972</v>
+      </c>
+      <c r="J301" s="2">
+        <f t="shared" si="13"/>
+        <v>83.322121896162542</v>
+      </c>
+      <c r="K301" s="2">
+        <f t="shared" si="14"/>
+        <v>-0.3221218961625425</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
+      <c r="A302" s="2">
+        <v>76.8</v>
+      </c>
+      <c r="B302" s="2">
+        <v>86</v>
+      </c>
+      <c r="D302" s="2">
+        <f t="shared" si="12"/>
+        <v>9.2000000000000028</v>
+      </c>
+      <c r="J302" s="2">
+        <f t="shared" si="13"/>
+        <v>83.422121896162537</v>
+      </c>
+      <c r="K302" s="2">
+        <f t="shared" si="14"/>
+        <v>2.5778781038374632</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11">
+      <c r="A303" s="2">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="B303" s="2">
+        <v>86</v>
+      </c>
+      <c r="D303" s="2">
+        <f t="shared" si="12"/>
+        <v>9.0999999999999943</v>
+      </c>
+      <c r="J303" s="2">
+        <f t="shared" si="13"/>
+        <v>83.522121896162545</v>
+      </c>
+      <c r="K303" s="2">
+        <f t="shared" si="14"/>
+        <v>2.4778781038374547</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
+      <c r="A304" s="2">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="B304" s="2">
+        <v>85</v>
+      </c>
+      <c r="D304" s="2">
+        <f t="shared" si="12"/>
+        <v>7.9000000000000057</v>
+      </c>
+      <c r="J304" s="2">
+        <f t="shared" si="13"/>
+        <v>83.722121896162534</v>
+      </c>
+      <c r="K304" s="2">
+        <f t="shared" si="14"/>
+        <v>1.277878103837466</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11">
+      <c r="A305" s="2">
+        <v>77.3</v>
+      </c>
+      <c r="B305" s="2">
+        <v>85</v>
+      </c>
+      <c r="D305" s="2">
+        <f t="shared" si="12"/>
+        <v>7.7000000000000028</v>
+      </c>
+      <c r="J305" s="2">
+        <f t="shared" si="13"/>
+        <v>83.922121896162537</v>
+      </c>
+      <c r="K305" s="2">
+        <f t="shared" si="14"/>
+        <v>1.0778781038374632</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11">
+      <c r="A306" s="2">
+        <v>77.3</v>
+      </c>
+      <c r="B306" s="2">
+        <v>85</v>
+      </c>
+      <c r="D306" s="2">
+        <f t="shared" si="12"/>
+        <v>7.7000000000000028</v>
+      </c>
+      <c r="J306" s="2">
+        <f t="shared" si="13"/>
+        <v>83.922121896162537</v>
+      </c>
+      <c r="K306" s="2">
+        <f t="shared" si="14"/>
+        <v>1.0778781038374632</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11">
+      <c r="A307" s="2">
+        <v>77.2</v>
+      </c>
+      <c r="B307" s="2">
+        <v>85</v>
+      </c>
+      <c r="D307" s="2">
+        <f t="shared" si="12"/>
+        <v>7.7999999999999972</v>
+      </c>
+      <c r="J307" s="2">
+        <f t="shared" si="13"/>
+        <v>83.822121896162542</v>
+      </c>
+      <c r="K307" s="2">
+        <f t="shared" si="14"/>
+        <v>1.1778781038374575</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11">
+      <c r="A308" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="B308" s="2">
+        <v>85</v>
+      </c>
+      <c r="D308" s="2">
+        <f t="shared" si="12"/>
+        <v>7.5</v>
+      </c>
+      <c r="J308" s="2">
+        <f t="shared" si="13"/>
+        <v>84.12212189616254</v>
+      </c>
+      <c r="K308" s="2">
+        <f t="shared" si="14"/>
+        <v>0.87787810383746034</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11">
+      <c r="A309" s="2">
+        <v>77.8</v>
+      </c>
+      <c r="B309" s="2">
+        <v>85</v>
+      </c>
+      <c r="D309" s="2">
+        <f t="shared" si="12"/>
+        <v>7.2000000000000028</v>
+      </c>
+      <c r="J309" s="2">
+        <f t="shared" si="13"/>
+        <v>84.422121896162537</v>
+      </c>
+      <c r="K309" s="2">
+        <f t="shared" si="14"/>
+        <v>0.57787810383746319</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11">
+      <c r="A310" s="2">
+        <v>77.8</v>
+      </c>
+      <c r="B310" s="2">
+        <v>85</v>
+      </c>
+      <c r="D310" s="2">
+        <f t="shared" si="12"/>
+        <v>7.2000000000000028</v>
+      </c>
+      <c r="J310" s="2">
+        <f t="shared" si="13"/>
+        <v>84.422121896162537</v>
+      </c>
+      <c r="K310" s="2">
+        <f t="shared" si="14"/>
+        <v>0.57787810383746319</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11">
+      <c r="A311" s="2">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="B311" s="2">
+        <v>85</v>
+      </c>
+      <c r="D311" s="2">
+        <f t="shared" si="12"/>
+        <v>7.4000000000000057</v>
+      </c>
+      <c r="J311" s="2">
+        <f t="shared" si="13"/>
+        <v>84.222121896162534</v>
+      </c>
+      <c r="K311" s="2">
+        <f t="shared" si="14"/>
+        <v>0.77787810383746603</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11">
+      <c r="A312" s="2">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="B312" s="2">
+        <v>85</v>
+      </c>
+      <c r="D312" s="2">
+        <f t="shared" si="12"/>
+        <v>7.4000000000000057</v>
+      </c>
+      <c r="J312" s="2">
+        <f t="shared" si="13"/>
+        <v>84.222121896162534</v>
+      </c>
+      <c r="K312" s="2">
+        <f t="shared" si="14"/>
+        <v>0.77787810383746603</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11">
+      <c r="A313" s="2">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="B313" s="2">
+        <v>85</v>
+      </c>
+      <c r="D313" s="2">
+        <f t="shared" si="12"/>
+        <v>7.4000000000000057</v>
+      </c>
+      <c r="J313" s="2">
+        <f t="shared" si="13"/>
+        <v>84.222121896162534</v>
+      </c>
+      <c r="K313" s="2">
+        <f t="shared" si="14"/>
+        <v>0.77787810383746603</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11">
+      <c r="A314" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="B314" s="2">
+        <v>85</v>
+      </c>
+      <c r="D314" s="2">
+        <f t="shared" si="12"/>
+        <v>7.5</v>
+      </c>
+      <c r="J314" s="2">
+        <f t="shared" si="13"/>
+        <v>84.12212189616254</v>
+      </c>
+      <c r="K314" s="2">
+        <f t="shared" si="14"/>
+        <v>0.87787810383746034</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11">
+      <c r="A315" s="2">
+        <v>77.3</v>
+      </c>
+      <c r="B315" s="2">
+        <v>85</v>
+      </c>
+      <c r="D315" s="2">
+        <f t="shared" si="12"/>
+        <v>7.7000000000000028</v>
+      </c>
+      <c r="J315" s="2">
+        <f t="shared" si="13"/>
+        <v>83.922121896162537</v>
+      </c>
+      <c r="K315" s="2">
+        <f t="shared" si="14"/>
+        <v>1.0778781038374632</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11">
+      <c r="A316" s="2">
+        <v>77</v>
+      </c>
+      <c r="B316" s="2">
+        <v>85</v>
+      </c>
+      <c r="D316" s="2">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="J316" s="2">
+        <f t="shared" si="13"/>
+        <v>83.62212189616254</v>
+      </c>
+      <c r="K316" s="2">
+        <f t="shared" si="14"/>
+        <v>1.3778781038374603</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11">
+      <c r="A317" s="2">
+        <v>76.8</v>
+      </c>
+      <c r="B317" s="2">
+        <v>85</v>
+      </c>
+      <c r="D317" s="2">
+        <f t="shared" si="12"/>
+        <v>8.2000000000000028</v>
+      </c>
+      <c r="J317" s="2">
+        <f t="shared" si="13"/>
+        <v>83.422121896162537</v>
+      </c>
+      <c r="K317" s="2">
+        <f t="shared" si="14"/>
+        <v>1.5778781038374632</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11">
+      <c r="A318" s="2">
+        <v>76.7</v>
+      </c>
+      <c r="B318" s="2">
+        <v>85</v>
+      </c>
+      <c r="D318" s="2">
+        <f t="shared" si="12"/>
+        <v>8.2999999999999972</v>
+      </c>
+      <c r="J318" s="2">
+        <f t="shared" si="13"/>
+        <v>83.322121896162542</v>
+      </c>
+      <c r="K318" s="2">
+        <f t="shared" si="14"/>
+        <v>1.6778781038374575</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11">
+      <c r="A319" s="2">
+        <v>76.3</v>
+      </c>
+      <c r="B319" s="2">
+        <v>85</v>
+      </c>
+      <c r="D319" s="2">
+        <f t="shared" si="12"/>
+        <v>8.7000000000000028</v>
+      </c>
+      <c r="J319" s="2">
+        <f t="shared" si="13"/>
+        <v>82.922121896162537</v>
+      </c>
+      <c r="K319" s="2">
+        <f t="shared" si="14"/>
+        <v>2.0778781038374632</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11">
+      <c r="A320" s="2">
+        <v>76.2</v>
+      </c>
+      <c r="B320" s="2">
+        <v>85</v>
+      </c>
+      <c r="D320" s="2">
+        <f t="shared" si="12"/>
+        <v>8.7999999999999972</v>
+      </c>
+      <c r="J320" s="2">
+        <f t="shared" si="13"/>
+        <v>82.822121896162542</v>
+      </c>
+      <c r="K320" s="2">
+        <f t="shared" si="14"/>
+        <v>2.1778781038374575</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11">
+      <c r="A321" s="2">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="B321" s="2">
+        <v>85</v>
+      </c>
+      <c r="D321" s="2">
+        <f t="shared" si="12"/>
+        <v>9.0999999999999943</v>
+      </c>
+      <c r="J321" s="2">
+        <f t="shared" si="13"/>
+        <v>82.522121896162545</v>
+      </c>
+      <c r="K321" s="2">
+        <f t="shared" si="14"/>
+        <v>2.4778781038374547</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11">
+      <c r="A322" s="2">
+        <v>75.5</v>
+      </c>
+      <c r="B322" s="2">
+        <v>85</v>
+      </c>
+      <c r="D322" s="2">
+        <f t="shared" si="12"/>
+        <v>9.5</v>
+      </c>
+      <c r="J322" s="2">
+        <f t="shared" si="13"/>
+        <v>82.12212189616254</v>
+      </c>
+      <c r="K322" s="2">
+        <f t="shared" si="14"/>
+        <v>2.8778781038374603</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11">
+      <c r="A323" s="2">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="B323" s="2">
+        <v>85</v>
+      </c>
+      <c r="D323" s="2">
+        <f t="shared" ref="D323:D386" si="15">B323-A323</f>
+        <v>9.9000000000000057</v>
+      </c>
+      <c r="J323" s="2">
+        <f t="shared" ref="J323:J386" si="16">A323+$G$7</f>
+        <v>81.722121896162534</v>
+      </c>
+      <c r="K323" s="2">
+        <f t="shared" ref="K323:K386" si="17">B323-J323</f>
+        <v>3.277878103837466</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11">
+      <c r="A324" s="2">
+        <v>74.3</v>
+      </c>
+      <c r="B324" s="2">
+        <v>85</v>
+      </c>
+      <c r="D324" s="2">
+        <f t="shared" si="15"/>
+        <v>10.700000000000003</v>
+      </c>
+      <c r="J324" s="2">
+        <f t="shared" si="16"/>
+        <v>80.922121896162537</v>
+      </c>
+      <c r="K324" s="2">
+        <f t="shared" si="17"/>
+        <v>4.0778781038374632</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11">
+      <c r="A325" s="2">
+        <v>74.2</v>
+      </c>
+      <c r="B325" s="2">
+        <v>85</v>
+      </c>
+      <c r="D325" s="2">
+        <f t="shared" si="15"/>
+        <v>10.799999999999997</v>
+      </c>
+      <c r="J325" s="2">
+        <f t="shared" si="16"/>
+        <v>80.822121896162542</v>
+      </c>
+      <c r="K325" s="2">
+        <f t="shared" si="17"/>
+        <v>4.1778781038374575</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11">
+      <c r="A326" s="2">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="B326" s="2">
+        <v>85</v>
+      </c>
+      <c r="D326" s="2">
+        <f t="shared" si="15"/>
+        <v>10.900000000000006</v>
+      </c>
+      <c r="J326" s="2">
+        <f t="shared" si="16"/>
+        <v>80.722121896162534</v>
+      </c>
+      <c r="K326" s="2">
+        <f t="shared" si="17"/>
+        <v>4.277878103837466</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11">
+      <c r="A327" s="2">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="B327" s="2">
+        <v>85</v>
+      </c>
+      <c r="D327" s="2">
+        <f t="shared" si="15"/>
+        <v>10.900000000000006</v>
+      </c>
+      <c r="J327" s="2">
+        <f t="shared" si="16"/>
+        <v>80.722121896162534</v>
+      </c>
+      <c r="K327" s="2">
+        <f t="shared" si="17"/>
+        <v>4.277878103837466</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11">
+      <c r="A328" s="2">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="B328" s="2">
+        <v>85</v>
+      </c>
+      <c r="D328" s="2">
+        <f t="shared" si="15"/>
+        <v>11.099999999999994</v>
+      </c>
+      <c r="J328" s="2">
+        <f t="shared" si="16"/>
+        <v>80.522121896162545</v>
+      </c>
+      <c r="K328" s="2">
+        <f t="shared" si="17"/>
+        <v>4.4778781038374547</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11">
+      <c r="A329" s="2">
+        <v>73.7</v>
+      </c>
+      <c r="B329" s="2">
+        <v>85</v>
+      </c>
+      <c r="D329" s="2">
+        <f t="shared" si="15"/>
+        <v>11.299999999999997</v>
+      </c>
+      <c r="J329" s="2">
+        <f t="shared" si="16"/>
+        <v>80.322121896162542</v>
+      </c>
+      <c r="K329" s="2">
+        <f t="shared" si="17"/>
+        <v>4.6778781038374575</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11">
+      <c r="A330" s="2">
+        <v>73.2</v>
+      </c>
+      <c r="B330" s="2">
+        <v>85</v>
+      </c>
+      <c r="D330" s="2">
+        <f t="shared" si="15"/>
+        <v>11.799999999999997</v>
+      </c>
+      <c r="J330" s="2">
+        <f t="shared" si="16"/>
+        <v>79.822121896162542</v>
+      </c>
+      <c r="K330" s="2">
+        <f t="shared" si="17"/>
+        <v>5.1778781038374575</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11">
+      <c r="A331" s="2">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="B331" s="2">
+        <v>85</v>
+      </c>
+      <c r="D331" s="2">
+        <f t="shared" si="15"/>
+        <v>12.099999999999994</v>
+      </c>
+      <c r="J331" s="2">
+        <f t="shared" si="16"/>
+        <v>79.522121896162545</v>
+      </c>
+      <c r="K331" s="2">
+        <f t="shared" si="17"/>
+        <v>5.4778781038374547</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11">
+      <c r="A332" s="2">
+        <v>72.5</v>
+      </c>
+      <c r="B332" s="2">
+        <v>85</v>
+      </c>
+      <c r="D332" s="2">
+        <f t="shared" si="15"/>
+        <v>12.5</v>
+      </c>
+      <c r="J332" s="2">
+        <f t="shared" si="16"/>
+        <v>79.12212189616254</v>
+      </c>
+      <c r="K332" s="2">
+        <f t="shared" si="17"/>
+        <v>5.8778781038374603</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11">
+      <c r="A333" s="2">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="B333" s="2">
+        <v>85</v>
+      </c>
+      <c r="D333" s="2">
+        <f t="shared" si="15"/>
+        <v>12.900000000000006</v>
+      </c>
+      <c r="J333" s="2">
+        <f t="shared" si="16"/>
+        <v>78.722121896162534</v>
+      </c>
+      <c r="K333" s="2">
+        <f t="shared" si="17"/>
+        <v>6.277878103837466</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11">
+      <c r="A334" s="2">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="B334" s="2">
+        <v>85</v>
+      </c>
+      <c r="D334" s="2">
+        <f t="shared" si="15"/>
+        <v>12.900000000000006</v>
+      </c>
+      <c r="J334" s="2">
+        <f t="shared" si="16"/>
+        <v>78.722121896162534</v>
+      </c>
+      <c r="K334" s="2">
+        <f t="shared" si="17"/>
+        <v>6.277878103837466</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11">
+      <c r="A335" s="2">
+        <v>72</v>
+      </c>
+      <c r="B335" s="2">
+        <v>85</v>
+      </c>
+      <c r="D335" s="2">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="J335" s="2">
+        <f t="shared" si="16"/>
+        <v>78.62212189616254</v>
+      </c>
+      <c r="K335" s="2">
+        <f t="shared" si="17"/>
+        <v>6.3778781038374603</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11">
+      <c r="A336" s="2">
+        <v>71.8</v>
+      </c>
+      <c r="B336" s="2">
+        <v>85</v>
+      </c>
+      <c r="D336" s="2">
+        <f t="shared" si="15"/>
+        <v>13.200000000000003</v>
+      </c>
+      <c r="J336" s="2">
+        <f t="shared" si="16"/>
+        <v>78.422121896162537</v>
+      </c>
+      <c r="K336" s="2">
+        <f t="shared" si="17"/>
+        <v>6.5778781038374632</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11">
+      <c r="A337" s="2">
+        <v>71.8</v>
+      </c>
+      <c r="B337" s="2">
+        <v>85</v>
+      </c>
+      <c r="D337" s="2">
+        <f t="shared" si="15"/>
+        <v>13.200000000000003</v>
+      </c>
+      <c r="J337" s="2">
+        <f t="shared" si="16"/>
+        <v>78.422121896162537</v>
+      </c>
+      <c r="K337" s="2">
+        <f t="shared" si="17"/>
+        <v>6.5778781038374632</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11">
+      <c r="A338" s="2">
+        <v>71.5</v>
+      </c>
+      <c r="B338" s="2">
+        <v>85</v>
+      </c>
+      <c r="D338" s="2">
+        <f t="shared" si="15"/>
+        <v>13.5</v>
+      </c>
+      <c r="J338" s="2">
+        <f t="shared" si="16"/>
+        <v>78.12212189616254</v>
+      </c>
+      <c r="K338" s="2">
+        <f t="shared" si="17"/>
+        <v>6.8778781038374603</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11">
+      <c r="A339" s="2">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="B339" s="2">
+        <v>85</v>
+      </c>
+      <c r="D339" s="2">
+        <f t="shared" si="15"/>
+        <v>13.400000000000006</v>
+      </c>
+      <c r="J339" s="2">
+        <f t="shared" si="16"/>
+        <v>78.222121896162534</v>
+      </c>
+      <c r="K339" s="2">
+        <f t="shared" si="17"/>
+        <v>6.777878103837466</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11">
+      <c r="A340" s="2">
+        <v>72.3</v>
+      </c>
+      <c r="B340" s="2">
+        <v>85</v>
+      </c>
+      <c r="D340" s="2">
+        <f t="shared" si="15"/>
+        <v>12.700000000000003</v>
+      </c>
+      <c r="J340" s="2">
+        <f t="shared" si="16"/>
+        <v>78.922121896162537</v>
+      </c>
+      <c r="K340" s="2">
+        <f t="shared" si="17"/>
+        <v>6.0778781038374632</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11">
+      <c r="A341" s="2">
+        <v>72.3</v>
+      </c>
+      <c r="B341" s="2">
+        <v>85</v>
+      </c>
+      <c r="D341" s="2">
+        <f t="shared" si="15"/>
+        <v>12.700000000000003</v>
+      </c>
+      <c r="J341" s="2">
+        <f t="shared" si="16"/>
+        <v>78.922121896162537</v>
+      </c>
+      <c r="K341" s="2">
+        <f t="shared" si="17"/>
+        <v>6.0778781038374632</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11">
+      <c r="A342" s="2">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="B342" s="2">
+        <v>85</v>
+      </c>
+      <c r="D342" s="2">
+        <f t="shared" si="15"/>
+        <v>12.900000000000006</v>
+      </c>
+      <c r="J342" s="2">
+        <f t="shared" si="16"/>
+        <v>78.722121896162534</v>
+      </c>
+      <c r="K342" s="2">
+        <f t="shared" si="17"/>
+        <v>6.277878103837466</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11">
+      <c r="A343" s="2">
+        <v>72</v>
+      </c>
+      <c r="B343" s="2">
+        <v>85</v>
+      </c>
+      <c r="D343" s="2">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="J343" s="2">
+        <f t="shared" si="16"/>
+        <v>78.62212189616254</v>
+      </c>
+      <c r="K343" s="2">
+        <f t="shared" si="17"/>
+        <v>6.3778781038374603</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11">
+      <c r="A344" s="2">
+        <v>71.8</v>
+      </c>
+      <c r="B344" s="2">
+        <v>85</v>
+      </c>
+      <c r="D344" s="2">
+        <f t="shared" si="15"/>
+        <v>13.200000000000003</v>
+      </c>
+      <c r="J344" s="2">
+        <f t="shared" si="16"/>
+        <v>78.422121896162537</v>
+      </c>
+      <c r="K344" s="2">
+        <f t="shared" si="17"/>
+        <v>6.5778781038374632</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11">
+      <c r="A345" s="2">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="B345" s="2">
+        <v>85</v>
+      </c>
+      <c r="D345" s="2">
+        <f t="shared" si="15"/>
+        <v>13.400000000000006</v>
+      </c>
+      <c r="J345" s="2">
+        <f t="shared" si="16"/>
+        <v>78.222121896162534</v>
+      </c>
+      <c r="K345" s="2">
+        <f t="shared" si="17"/>
+        <v>6.777878103837466</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11">
+      <c r="A346" s="2">
+        <v>71.5</v>
+      </c>
+      <c r="B346" s="2">
+        <v>85</v>
+      </c>
+      <c r="D346" s="2">
+        <f t="shared" si="15"/>
+        <v>13.5</v>
+      </c>
+      <c r="J346" s="2">
+        <f t="shared" si="16"/>
+        <v>78.12212189616254</v>
+      </c>
+      <c r="K346" s="2">
+        <f t="shared" si="17"/>
+        <v>6.8778781038374603</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11">
+      <c r="A347" s="2">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="B347" s="2">
+        <v>85</v>
+      </c>
+      <c r="D347" s="2">
+        <f t="shared" si="15"/>
+        <v>12.900000000000006</v>
+      </c>
+      <c r="J347" s="2">
+        <f t="shared" si="16"/>
+        <v>78.722121896162534</v>
+      </c>
+      <c r="K347" s="2">
+        <f t="shared" si="17"/>
+        <v>6.277878103837466</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11">
+      <c r="A348" s="2">
+        <v>72.2</v>
+      </c>
+      <c r="B348" s="2">
+        <v>85</v>
+      </c>
+      <c r="D348" s="2">
+        <f t="shared" si="15"/>
+        <v>12.799999999999997</v>
+      </c>
+      <c r="J348" s="2">
+        <f t="shared" si="16"/>
+        <v>78.822121896162542</v>
+      </c>
+      <c r="K348" s="2">
+        <f t="shared" si="17"/>
+        <v>6.1778781038374575</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11">
+      <c r="A349" s="2">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="B349" s="2">
+        <v>85</v>
+      </c>
+      <c r="D349" s="2">
+        <f t="shared" si="15"/>
+        <v>12.099999999999994</v>
+      </c>
+      <c r="J349" s="2">
+        <f t="shared" si="16"/>
+        <v>79.522121896162545</v>
+      </c>
+      <c r="K349" s="2">
+        <f t="shared" si="17"/>
+        <v>5.4778781038374547</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11">
+      <c r="A350" s="2">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="B350" s="2">
+        <v>85</v>
+      </c>
+      <c r="D350" s="2">
+        <f t="shared" si="15"/>
+        <v>11.900000000000006</v>
+      </c>
+      <c r="J350" s="2">
+        <f t="shared" si="16"/>
+        <v>79.722121896162534</v>
+      </c>
+      <c r="K350" s="2">
+        <f t="shared" si="17"/>
+        <v>5.277878103837466</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11">
+      <c r="A351" s="2">
+        <v>73.3</v>
+      </c>
+      <c r="B351" s="2">
+        <v>85</v>
+      </c>
+      <c r="D351" s="2">
+        <f t="shared" si="15"/>
+        <v>11.700000000000003</v>
+      </c>
+      <c r="J351" s="2">
+        <f t="shared" si="16"/>
+        <v>79.922121896162537</v>
+      </c>
+      <c r="K351" s="2">
+        <f t="shared" si="17"/>
+        <v>5.0778781038374632</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11">
+      <c r="A352" s="2">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="B352" s="2">
+        <v>85</v>
+      </c>
+      <c r="D352" s="2">
+        <f t="shared" si="15"/>
+        <v>10.900000000000006</v>
+      </c>
+      <c r="J352" s="2">
+        <f t="shared" si="16"/>
+        <v>80.722121896162534</v>
+      </c>
+      <c r="K352" s="2">
+        <f t="shared" si="17"/>
+        <v>4.277878103837466</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11">
+      <c r="A353" s="2">
+        <v>74.8</v>
+      </c>
+      <c r="B353" s="2">
+        <v>85</v>
+      </c>
+      <c r="D353" s="2">
+        <f t="shared" si="15"/>
+        <v>10.200000000000003</v>
+      </c>
+      <c r="J353" s="2">
+        <f t="shared" si="16"/>
+        <v>81.422121896162537</v>
+      </c>
+      <c r="K353" s="2">
+        <f t="shared" si="17"/>
+        <v>3.5778781038374632</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11">
+      <c r="A354" s="2">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="B354" s="2">
+        <v>85</v>
+      </c>
+      <c r="D354" s="2">
+        <f t="shared" si="15"/>
+        <v>10.099999999999994</v>
+      </c>
+      <c r="J354" s="2">
+        <f t="shared" si="16"/>
+        <v>81.522121896162545</v>
+      </c>
+      <c r="K354" s="2">
+        <f t="shared" si="17"/>
+        <v>3.4778781038374547</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11">
+      <c r="A355" s="2">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="B355" s="2">
+        <v>85</v>
+      </c>
+      <c r="D355" s="2">
+        <f t="shared" si="15"/>
+        <v>10.400000000000006</v>
+      </c>
+      <c r="J355" s="2">
+        <f t="shared" si="16"/>
+        <v>81.222121896162534</v>
+      </c>
+      <c r="K355" s="2">
+        <f t="shared" si="17"/>
+        <v>3.777878103837466</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11">
+      <c r="A356" s="2">
+        <v>74.5</v>
+      </c>
+      <c r="B356" s="2">
+        <v>85</v>
+      </c>
+      <c r="D356" s="2">
+        <f t="shared" si="15"/>
+        <v>10.5</v>
+      </c>
+      <c r="J356" s="2">
+        <f t="shared" si="16"/>
+        <v>81.12212189616254</v>
+      </c>
+      <c r="K356" s="2">
+        <f t="shared" si="17"/>
+        <v>3.8778781038374603</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11">
+      <c r="A357" s="2">
+        <v>74.7</v>
+      </c>
+      <c r="B357" s="2">
+        <v>85</v>
+      </c>
+      <c r="D357" s="2">
+        <f t="shared" si="15"/>
+        <v>10.299999999999997</v>
+      </c>
+      <c r="J357" s="2">
+        <f t="shared" si="16"/>
+        <v>81.322121896162542</v>
+      </c>
+      <c r="K357" s="2">
+        <f t="shared" si="17"/>
+        <v>3.6778781038374575</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11">
+      <c r="A358" s="2">
+        <v>73.7</v>
+      </c>
+      <c r="B358" s="2">
+        <v>85</v>
+      </c>
+      <c r="D358" s="2">
+        <f t="shared" si="15"/>
+        <v>11.299999999999997</v>
+      </c>
+      <c r="J358" s="2">
+        <f t="shared" si="16"/>
+        <v>80.322121896162542</v>
+      </c>
+      <c r="K358" s="2">
+        <f t="shared" si="17"/>
+        <v>4.6778781038374575</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11">
+      <c r="A359" s="2">
+        <v>73.2</v>
+      </c>
+      <c r="B359" s="2">
+        <v>85</v>
+      </c>
+      <c r="D359" s="2">
+        <f t="shared" si="15"/>
+        <v>11.799999999999997</v>
+      </c>
+      <c r="J359" s="2">
+        <f t="shared" si="16"/>
+        <v>79.822121896162542</v>
+      </c>
+      <c r="K359" s="2">
+        <f t="shared" si="17"/>
+        <v>5.1778781038374575</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11">
+      <c r="A360" s="2">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="B360" s="2">
+        <v>85</v>
+      </c>
+      <c r="D360" s="2">
+        <f t="shared" si="15"/>
+        <v>12.400000000000006</v>
+      </c>
+      <c r="J360" s="2">
+        <f t="shared" si="16"/>
+        <v>79.222121896162534</v>
+      </c>
+      <c r="K360" s="2">
+        <f t="shared" si="17"/>
+        <v>5.777878103837466</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11">
+      <c r="A361" s="2">
+        <v>72.7</v>
+      </c>
+      <c r="B361" s="2">
+        <v>85</v>
+      </c>
+      <c r="D361" s="2">
+        <f t="shared" si="15"/>
+        <v>12.299999999999997</v>
+      </c>
+      <c r="J361" s="2">
+        <f t="shared" si="16"/>
+        <v>79.322121896162542</v>
+      </c>
+      <c r="K361" s="2">
+        <f t="shared" si="17"/>
+        <v>5.6778781038374575</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11">
+      <c r="A362" s="2">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="B362" s="2">
+        <v>85</v>
+      </c>
+      <c r="D362" s="2">
+        <f t="shared" si="15"/>
+        <v>12.400000000000006</v>
+      </c>
+      <c r="J362" s="2">
+        <f t="shared" si="16"/>
+        <v>79.222121896162534</v>
+      </c>
+      <c r="K362" s="2">
+        <f t="shared" si="17"/>
+        <v>5.777878103837466</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11">
+      <c r="A363" s="2">
+        <v>72.5</v>
+      </c>
+      <c r="B363" s="2">
+        <v>85</v>
+      </c>
+      <c r="D363" s="2">
+        <f t="shared" si="15"/>
+        <v>12.5</v>
+      </c>
+      <c r="J363" s="2">
+        <f t="shared" si="16"/>
+        <v>79.12212189616254</v>
+      </c>
+      <c r="K363" s="2">
+        <f t="shared" si="17"/>
+        <v>5.8778781038374603</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11">
+      <c r="A364" s="2">
+        <v>72.5</v>
+      </c>
+      <c r="B364" s="2">
+        <v>85</v>
+      </c>
+      <c r="D364" s="2">
+        <f t="shared" si="15"/>
+        <v>12.5</v>
+      </c>
+      <c r="J364" s="2">
+        <f t="shared" si="16"/>
+        <v>79.12212189616254</v>
+      </c>
+      <c r="K364" s="2">
+        <f t="shared" si="17"/>
+        <v>5.8778781038374603</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11">
+      <c r="A365" s="2">
+        <v>72.2</v>
+      </c>
+      <c r="B365" s="2">
+        <v>85</v>
+      </c>
+      <c r="D365" s="2">
+        <f t="shared" si="15"/>
+        <v>12.799999999999997</v>
+      </c>
+      <c r="J365" s="2">
+        <f t="shared" si="16"/>
+        <v>78.822121896162542</v>
+      </c>
+      <c r="K365" s="2">
+        <f t="shared" si="17"/>
+        <v>6.1778781038374575</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11">
+      <c r="A366" s="2">
+        <v>71.8</v>
+      </c>
+      <c r="B366" s="2">
+        <v>85</v>
+      </c>
+      <c r="D366" s="2">
+        <f t="shared" si="15"/>
+        <v>13.200000000000003</v>
+      </c>
+      <c r="J366" s="2">
+        <f t="shared" si="16"/>
+        <v>78.422121896162537</v>
+      </c>
+      <c r="K366" s="2">
+        <f t="shared" si="17"/>
+        <v>6.5778781038374632</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11">
+      <c r="A367" s="2">
+        <v>71.5</v>
+      </c>
+      <c r="B367" s="2">
+        <v>85</v>
+      </c>
+      <c r="D367" s="2">
+        <f t="shared" si="15"/>
+        <v>13.5</v>
+      </c>
+      <c r="J367" s="2">
+        <f t="shared" si="16"/>
+        <v>78.12212189616254</v>
+      </c>
+      <c r="K367" s="2">
+        <f t="shared" si="17"/>
+        <v>6.8778781038374603</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11">
+      <c r="A368" s="2">
+        <v>71</v>
+      </c>
+      <c r="B368" s="2">
+        <v>83</v>
+      </c>
+      <c r="D368" s="2">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="J368" s="2">
+        <f t="shared" si="16"/>
+        <v>77.62212189616254</v>
+      </c>
+      <c r="K368" s="2">
+        <f t="shared" si="17"/>
+        <v>5.3778781038374603</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11">
+      <c r="A369" s="2">
+        <v>70.5</v>
+      </c>
+      <c r="B369" s="2">
+        <v>83</v>
+      </c>
+      <c r="D369" s="2">
+        <f t="shared" si="15"/>
+        <v>12.5</v>
+      </c>
+      <c r="J369" s="2">
+        <f t="shared" si="16"/>
+        <v>77.12212189616254</v>
+      </c>
+      <c r="K369" s="2">
+        <f t="shared" si="17"/>
+        <v>5.8778781038374603</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11">
+      <c r="A370" s="2">
+        <v>70.3</v>
+      </c>
+      <c r="B370" s="2">
+        <v>83</v>
+      </c>
+      <c r="D370" s="2">
+        <f t="shared" si="15"/>
+        <v>12.700000000000003</v>
+      </c>
+      <c r="J370" s="2">
+        <f t="shared" si="16"/>
+        <v>76.922121896162537</v>
+      </c>
+      <c r="K370" s="2">
+        <f t="shared" si="17"/>
+        <v>6.0778781038374632</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11">
+      <c r="A371" s="2">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="B371" s="2">
+        <v>83</v>
+      </c>
+      <c r="D371" s="2">
+        <f t="shared" si="15"/>
+        <v>12.900000000000006</v>
+      </c>
+      <c r="J371" s="2">
+        <f t="shared" si="16"/>
+        <v>76.722121896162534</v>
+      </c>
+      <c r="K371" s="2">
+        <f t="shared" si="17"/>
+        <v>6.277878103837466</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11">
+      <c r="A372" s="2">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="B372" s="2">
+        <v>83</v>
+      </c>
+      <c r="D372" s="2">
+        <f t="shared" si="15"/>
+        <v>12.900000000000006</v>
+      </c>
+      <c r="J372" s="2">
+        <f t="shared" si="16"/>
+        <v>76.722121896162534</v>
+      </c>
+      <c r="K372" s="2">
+        <f t="shared" si="17"/>
+        <v>6.277878103837466</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11">
+      <c r="A373" s="2">
+        <v>70.2</v>
+      </c>
+      <c r="B373" s="2">
+        <v>83</v>
+      </c>
+      <c r="D373" s="2">
+        <f t="shared" si="15"/>
+        <v>12.799999999999997</v>
+      </c>
+      <c r="J373" s="2">
+        <f t="shared" si="16"/>
+        <v>76.822121896162542</v>
+      </c>
+      <c r="K373" s="2">
+        <f t="shared" si="17"/>
+        <v>6.1778781038374575</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11">
+      <c r="A374" s="2">
+        <v>70.5</v>
+      </c>
+      <c r="B374" s="2">
+        <v>83</v>
+      </c>
+      <c r="D374" s="2">
+        <f t="shared" si="15"/>
+        <v>12.5</v>
+      </c>
+      <c r="J374" s="2">
+        <f t="shared" si="16"/>
+        <v>77.12212189616254</v>
+      </c>
+      <c r="K374" s="2">
+        <f t="shared" si="17"/>
+        <v>5.8778781038374603</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11">
+      <c r="A375" s="2">
+        <v>70.3</v>
+      </c>
+      <c r="B375" s="2">
+        <v>83</v>
+      </c>
+      <c r="D375" s="2">
+        <f t="shared" si="15"/>
+        <v>12.700000000000003</v>
+      </c>
+      <c r="J375" s="2">
+        <f t="shared" si="16"/>
+        <v>76.922121896162537</v>
+      </c>
+      <c r="K375" s="2">
+        <f t="shared" si="17"/>
+        <v>6.0778781038374632</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11">
+      <c r="A376" s="2">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="B376" s="2">
+        <v>83</v>
+      </c>
+      <c r="D376" s="2">
+        <f t="shared" si="15"/>
+        <v>12.900000000000006</v>
+      </c>
+      <c r="J376" s="2">
+        <f t="shared" si="16"/>
+        <v>76.722121896162534</v>
+      </c>
+      <c r="K376" s="2">
+        <f t="shared" si="17"/>
+        <v>6.277878103837466</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11">
+      <c r="A377" s="2">
+        <v>70.3</v>
+      </c>
+      <c r="B377" s="2">
+        <v>83</v>
+      </c>
+      <c r="D377" s="2">
+        <f t="shared" si="15"/>
+        <v>12.700000000000003</v>
+      </c>
+      <c r="J377" s="2">
+        <f t="shared" si="16"/>
+        <v>76.922121896162537</v>
+      </c>
+      <c r="K377" s="2">
+        <f t="shared" si="17"/>
+        <v>6.0778781038374632</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11">
+      <c r="A378" s="2">
+        <v>70.3</v>
+      </c>
+      <c r="B378" s="2">
+        <v>83</v>
+      </c>
+      <c r="D378" s="2">
+        <f t="shared" si="15"/>
+        <v>12.700000000000003</v>
+      </c>
+      <c r="J378" s="2">
+        <f t="shared" si="16"/>
+        <v>76.922121896162537</v>
+      </c>
+      <c r="K378" s="2">
+        <f t="shared" si="17"/>
+        <v>6.0778781038374632</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11">
+      <c r="A379" s="2">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="B379" s="2">
+        <v>83</v>
+      </c>
+      <c r="D379" s="2">
+        <f t="shared" si="15"/>
+        <v>12.400000000000006</v>
+      </c>
+      <c r="J379" s="2">
+        <f t="shared" si="16"/>
+        <v>77.222121896162534</v>
+      </c>
+      <c r="K379" s="2">
+        <f t="shared" si="17"/>
+        <v>5.777878103837466</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11">
+      <c r="A380" s="2">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="B380" s="2">
+        <v>83</v>
+      </c>
+      <c r="D380" s="2">
+        <f t="shared" si="15"/>
+        <v>11.900000000000006</v>
+      </c>
+      <c r="J380" s="2">
+        <f t="shared" si="16"/>
+        <v>77.722121896162534</v>
+      </c>
+      <c r="K380" s="2">
+        <f t="shared" si="17"/>
+        <v>5.277878103837466</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11">
+      <c r="A381" s="2">
+        <v>71.5</v>
+      </c>
+      <c r="B381" s="2">
+        <v>83</v>
+      </c>
+      <c r="D381" s="2">
+        <f t="shared" si="15"/>
+        <v>11.5</v>
+      </c>
+      <c r="J381" s="2">
+        <f t="shared" si="16"/>
+        <v>78.12212189616254</v>
+      </c>
+      <c r="K381" s="2">
+        <f t="shared" si="17"/>
+        <v>4.8778781038374603</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11">
+      <c r="A382" s="2">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="B382" s="2">
+        <v>83</v>
+      </c>
+      <c r="D382" s="2">
+        <f t="shared" si="15"/>
+        <v>11.099999999999994</v>
+      </c>
+      <c r="J382" s="2">
+        <f t="shared" si="16"/>
+        <v>78.522121896162545</v>
+      </c>
+      <c r="K382" s="2">
+        <f t="shared" si="17"/>
+        <v>4.4778781038374547</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11">
+      <c r="A383" s="2">
+        <v>72.2</v>
+      </c>
+      <c r="B383" s="2">
+        <v>83</v>
+      </c>
+      <c r="D383" s="2">
+        <f t="shared" si="15"/>
+        <v>10.799999999999997</v>
+      </c>
+      <c r="J383" s="2">
+        <f t="shared" si="16"/>
+        <v>78.822121896162542</v>
+      </c>
+      <c r="K383" s="2">
+        <f t="shared" si="17"/>
+        <v>4.1778781038374575</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11">
+      <c r="A384" s="2">
+        <v>72.5</v>
+      </c>
+      <c r="B384" s="2">
+        <v>83</v>
+      </c>
+      <c r="D384" s="2">
+        <f t="shared" si="15"/>
+        <v>10.5</v>
+      </c>
+      <c r="J384" s="2">
+        <f t="shared" si="16"/>
+        <v>79.12212189616254</v>
+      </c>
+      <c r="K384" s="2">
+        <f t="shared" si="17"/>
+        <v>3.8778781038374603</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11">
+      <c r="A385" s="2">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="B385" s="2">
+        <v>83</v>
+      </c>
+      <c r="D385" s="2">
+        <f t="shared" si="15"/>
+        <v>10.099999999999994</v>
+      </c>
+      <c r="J385" s="2">
+        <f t="shared" si="16"/>
+        <v>79.522121896162545</v>
+      </c>
+      <c r="K385" s="2">
+        <f t="shared" si="17"/>
+        <v>3.4778781038374547</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11">
+      <c r="A386" s="2">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="B386" s="2">
+        <v>83</v>
+      </c>
+      <c r="D386" s="2">
+        <f t="shared" si="15"/>
+        <v>9.9000000000000057</v>
+      </c>
+      <c r="J386" s="2">
+        <f t="shared" si="16"/>
+        <v>79.722121896162534</v>
+      </c>
+      <c r="K386" s="2">
+        <f t="shared" si="17"/>
+        <v>3.277878103837466</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11">
+      <c r="A387" s="2">
+        <v>73.7</v>
+      </c>
+      <c r="B387" s="2">
+        <v>83</v>
+      </c>
+      <c r="D387" s="2">
+        <f t="shared" ref="D387:D444" si="18">B387-A387</f>
+        <v>9.2999999999999972</v>
+      </c>
+      <c r="J387" s="2">
+        <f t="shared" ref="J387:J444" si="19">A387+$G$7</f>
+        <v>80.322121896162542</v>
+      </c>
+      <c r="K387" s="2">
+        <f t="shared" ref="K387:K444" si="20">B387-J387</f>
+        <v>2.6778781038374575</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11">
+      <c r="A388" s="2">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="B388" s="2">
+        <v>83</v>
+      </c>
+      <c r="D388" s="2">
+        <f t="shared" si="18"/>
+        <v>8.9000000000000057</v>
+      </c>
+      <c r="J388" s="2">
+        <f t="shared" si="19"/>
+        <v>80.722121896162534</v>
+      </c>
+      <c r="K388" s="2">
+        <f t="shared" si="20"/>
+        <v>2.277878103837466</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11">
+      <c r="A389" s="2">
+        <v>74.5</v>
+      </c>
+      <c r="B389" s="2">
+        <v>84</v>
+      </c>
+      <c r="D389" s="2">
+        <f t="shared" si="18"/>
+        <v>9.5</v>
+      </c>
+      <c r="J389" s="2">
+        <f t="shared" si="19"/>
+        <v>81.12212189616254</v>
+      </c>
+      <c r="K389" s="2">
+        <f t="shared" si="20"/>
+        <v>2.8778781038374603</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11">
+      <c r="A390" s="2">
+        <v>74.7</v>
+      </c>
+      <c r="B390" s="2">
+        <v>84</v>
+      </c>
+      <c r="D390" s="2">
+        <f t="shared" si="18"/>
+        <v>9.2999999999999972</v>
+      </c>
+      <c r="J390" s="2">
+        <f t="shared" si="19"/>
+        <v>81.322121896162542</v>
+      </c>
+      <c r="K390" s="2">
+        <f t="shared" si="20"/>
+        <v>2.6778781038374575</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11">
+      <c r="A391" s="2">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="B391" s="2">
+        <v>84</v>
+      </c>
+      <c r="D391" s="2">
+        <f t="shared" si="18"/>
+        <v>10.099999999999994</v>
+      </c>
+      <c r="J391" s="2">
+        <f t="shared" si="19"/>
+        <v>80.522121896162545</v>
+      </c>
+      <c r="K391" s="2">
+        <f t="shared" si="20"/>
+        <v>3.4778781038374547</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11">
+      <c r="A392" s="2">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="B392" s="2">
+        <v>84</v>
+      </c>
+      <c r="D392" s="2">
+        <f t="shared" si="18"/>
+        <v>10.599999999999994</v>
+      </c>
+      <c r="J392" s="2">
+        <f t="shared" si="19"/>
+        <v>80.022121896162545</v>
+      </c>
+      <c r="K392" s="2">
+        <f t="shared" si="20"/>
+        <v>3.9778781038374547</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11">
+      <c r="A393" s="2">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="B393" s="2">
+        <v>84</v>
+      </c>
+      <c r="D393" s="2">
+        <f t="shared" si="18"/>
+        <v>11.099999999999994</v>
+      </c>
+      <c r="J393" s="2">
+        <f t="shared" si="19"/>
+        <v>79.522121896162545</v>
+      </c>
+      <c r="K393" s="2">
+        <f t="shared" si="20"/>
+        <v>4.4778781038374547</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11">
+      <c r="A394" s="2">
+        <v>72.8</v>
+      </c>
+      <c r="B394" s="2">
+        <v>84</v>
+      </c>
+      <c r="D394" s="2">
+        <f t="shared" si="18"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="J394" s="2">
+        <f t="shared" si="19"/>
+        <v>79.422121896162537</v>
+      </c>
+      <c r="K394" s="2">
+        <f t="shared" si="20"/>
+        <v>4.5778781038374632</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11">
+      <c r="A395" s="2">
+        <v>72.5</v>
+      </c>
+      <c r="B395" s="2">
+        <v>84</v>
+      </c>
+      <c r="D395" s="2">
+        <f t="shared" si="18"/>
+        <v>11.5</v>
+      </c>
+      <c r="J395" s="2">
+        <f t="shared" si="19"/>
+        <v>79.12212189616254</v>
+      </c>
+      <c r="K395" s="2">
+        <f t="shared" si="20"/>
+        <v>4.8778781038374603</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11">
+      <c r="A396" s="2">
+        <v>72.2</v>
+      </c>
+      <c r="B396" s="2">
+        <v>84</v>
+      </c>
+      <c r="D396" s="2">
+        <f t="shared" si="18"/>
+        <v>11.799999999999997</v>
+      </c>
+      <c r="J396" s="2">
+        <f t="shared" si="19"/>
+        <v>78.822121896162542</v>
+      </c>
+      <c r="K396" s="2">
+        <f t="shared" si="20"/>
+        <v>5.1778781038374575</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11">
+      <c r="A397" s="2">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="B397" s="2">
+        <v>84</v>
+      </c>
+      <c r="D397" s="2">
+        <f t="shared" si="18"/>
+        <v>11.900000000000006</v>
+      </c>
+      <c r="J397" s="2">
+        <f t="shared" si="19"/>
+        <v>78.722121896162534</v>
+      </c>
+      <c r="K397" s="2">
+        <f t="shared" si="20"/>
+        <v>5.277878103837466</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11">
+      <c r="A398" s="2">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="B398" s="2">
+        <v>84</v>
+      </c>
+      <c r="D398" s="2">
+        <f t="shared" si="18"/>
+        <v>11.900000000000006</v>
+      </c>
+      <c r="J398" s="2">
+        <f t="shared" si="19"/>
+        <v>78.722121896162534</v>
+      </c>
+      <c r="K398" s="2">
+        <f t="shared" si="20"/>
+        <v>5.277878103837466</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11">
+      <c r="A399" s="2">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="B399" s="2">
+        <v>84</v>
+      </c>
+      <c r="D399" s="2">
+        <f t="shared" si="18"/>
+        <v>11.900000000000006</v>
+      </c>
+      <c r="J399" s="2">
+        <f t="shared" si="19"/>
+        <v>78.722121896162534</v>
+      </c>
+      <c r="K399" s="2">
+        <f t="shared" si="20"/>
+        <v>5.277878103837466</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11">
+      <c r="A400" s="2">
+        <v>72.2</v>
+      </c>
+      <c r="B400" s="2">
+        <v>84</v>
+      </c>
+      <c r="D400" s="2">
+        <f t="shared" si="18"/>
+        <v>11.799999999999997</v>
+      </c>
+      <c r="J400" s="2">
+        <f t="shared" si="19"/>
+        <v>78.822121896162542</v>
+      </c>
+      <c r="K400" s="2">
+        <f t="shared" si="20"/>
+        <v>5.1778781038374575</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11">
+      <c r="A401" s="2">
+        <v>72.5</v>
+      </c>
+      <c r="B401" s="2">
+        <v>84</v>
+      </c>
+      <c r="D401" s="2">
+        <f t="shared" si="18"/>
+        <v>11.5</v>
+      </c>
+      <c r="J401" s="2">
+        <f t="shared" si="19"/>
+        <v>79.12212189616254</v>
+      </c>
+      <c r="K401" s="2">
+        <f t="shared" si="20"/>
+        <v>4.8778781038374603</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11">
+      <c r="A402" s="2">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="B402" s="2">
+        <v>84</v>
+      </c>
+      <c r="D402" s="2">
+        <f t="shared" si="18"/>
+        <v>11.400000000000006</v>
+      </c>
+      <c r="J402" s="2">
+        <f t="shared" si="19"/>
+        <v>79.222121896162534</v>
+      </c>
+      <c r="K402" s="2">
+        <f t="shared" si="20"/>
+        <v>4.777878103837466</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11">
+      <c r="A403" s="2">
+        <v>72.5</v>
+      </c>
+      <c r="B403" s="2">
+        <v>84</v>
+      </c>
+      <c r="D403" s="2">
+        <f t="shared" si="18"/>
+        <v>11.5</v>
+      </c>
+      <c r="J403" s="2">
+        <f t="shared" si="19"/>
+        <v>79.12212189616254</v>
+      </c>
+      <c r="K403" s="2">
+        <f t="shared" si="20"/>
+        <v>4.8778781038374603</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11">
+      <c r="A404" s="2">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="B404" s="2">
+        <v>84</v>
+      </c>
+      <c r="D404" s="2">
+        <f t="shared" si="18"/>
+        <v>11.900000000000006</v>
+      </c>
+      <c r="J404" s="2">
+        <f t="shared" si="19"/>
+        <v>78.722121896162534</v>
+      </c>
+      <c r="K404" s="2">
+        <f t="shared" si="20"/>
+        <v>5.277878103837466</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11">
+      <c r="A405" s="2">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="B405" s="2">
+        <v>84</v>
+      </c>
+      <c r="D405" s="2">
+        <f t="shared" si="18"/>
+        <v>12.099999999999994</v>
+      </c>
+      <c r="J405" s="2">
+        <f t="shared" si="19"/>
+        <v>78.522121896162545</v>
+      </c>
+      <c r="K405" s="2">
+        <f t="shared" si="20"/>
+        <v>5.4778781038374547</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11">
+      <c r="A406" s="2">
+        <v>71.7</v>
+      </c>
+      <c r="B406" s="2">
+        <v>84</v>
+      </c>
+      <c r="D406" s="2">
+        <f t="shared" si="18"/>
+        <v>12.299999999999997</v>
+      </c>
+      <c r="J406" s="2">
+        <f t="shared" si="19"/>
+        <v>78.322121896162542</v>
+      </c>
+      <c r="K406" s="2">
+        <f t="shared" si="20"/>
+        <v>5.6778781038374575</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11">
+      <c r="A407" s="2">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="B407" s="2">
+        <v>84</v>
+      </c>
+      <c r="D407" s="2">
+        <f t="shared" si="18"/>
+        <v>12.400000000000006</v>
+      </c>
+      <c r="J407" s="2">
+        <f t="shared" si="19"/>
+        <v>78.222121896162534</v>
+      </c>
+      <c r="K407" s="2">
+        <f t="shared" si="20"/>
+        <v>5.777878103837466</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11">
+      <c r="A408" s="2">
+        <v>71.5</v>
+      </c>
+      <c r="B408" s="2">
+        <v>84</v>
+      </c>
+      <c r="D408" s="2">
+        <f t="shared" si="18"/>
+        <v>12.5</v>
+      </c>
+      <c r="J408" s="2">
+        <f t="shared" si="19"/>
+        <v>78.12212189616254</v>
+      </c>
+      <c r="K408" s="2">
+        <f t="shared" si="20"/>
+        <v>5.8778781038374603</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11">
+      <c r="A409" s="2">
+        <v>71.5</v>
+      </c>
+      <c r="B409" s="2">
+        <v>84</v>
+      </c>
+      <c r="D409" s="2">
+        <f t="shared" si="18"/>
+        <v>12.5</v>
+      </c>
+      <c r="J409" s="2">
+        <f t="shared" si="19"/>
+        <v>78.12212189616254</v>
+      </c>
+      <c r="K409" s="2">
+        <f t="shared" si="20"/>
+        <v>5.8778781038374603</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11">
+      <c r="A410" s="2">
+        <v>70.8</v>
+      </c>
+      <c r="B410" s="2">
+        <v>84</v>
+      </c>
+      <c r="D410" s="2">
+        <f t="shared" si="18"/>
+        <v>13.200000000000003</v>
+      </c>
+      <c r="J410" s="2">
+        <f t="shared" si="19"/>
+        <v>77.422121896162537</v>
+      </c>
+      <c r="K410" s="2">
+        <f t="shared" si="20"/>
+        <v>6.5778781038374632</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11">
+      <c r="A411" s="2">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="B411" s="2">
+        <v>84</v>
+      </c>
+      <c r="D411" s="2">
+        <f t="shared" si="18"/>
+        <v>14.099999999999994</v>
+      </c>
+      <c r="J411" s="2">
+        <f t="shared" si="19"/>
+        <v>76.522121896162545</v>
+      </c>
+      <c r="K411" s="2">
+        <f t="shared" si="20"/>
+        <v>7.4778781038374547</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11">
+      <c r="A412" s="2">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="B412" s="2">
+        <v>84</v>
+      </c>
+      <c r="D412" s="2">
+        <f t="shared" si="18"/>
+        <v>14.900000000000006</v>
+      </c>
+      <c r="J412" s="2">
+        <f t="shared" si="19"/>
+        <v>75.722121896162534</v>
+      </c>
+      <c r="K412" s="2">
+        <f t="shared" si="20"/>
+        <v>8.277878103837466</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11">
+      <c r="A413" s="2">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="B413" s="2">
+        <v>84</v>
+      </c>
+      <c r="D413" s="2">
+        <f t="shared" si="18"/>
+        <v>15.099999999999994</v>
+      </c>
+      <c r="J413" s="2">
+        <f t="shared" si="19"/>
+        <v>75.522121896162545</v>
+      </c>
+      <c r="K413" s="2">
+        <f t="shared" si="20"/>
+        <v>8.4778781038374547</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11">
+      <c r="A414" s="2">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="B414" s="2">
+        <v>84</v>
+      </c>
+      <c r="D414" s="2">
+        <f t="shared" si="18"/>
+        <v>15.099999999999994</v>
+      </c>
+      <c r="J414" s="2">
+        <f t="shared" si="19"/>
+        <v>75.522121896162545</v>
+      </c>
+      <c r="K414" s="2">
+        <f t="shared" si="20"/>
+        <v>8.4778781038374547</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11">
+      <c r="A415" s="2">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="B415" s="2">
+        <v>84</v>
+      </c>
+      <c r="D415" s="2">
+        <f t="shared" si="18"/>
+        <v>15.599999999999994</v>
+      </c>
+      <c r="J415" s="2">
+        <f t="shared" si="19"/>
+        <v>75.022121896162545</v>
+      </c>
+      <c r="K415" s="2">
+        <f t="shared" si="20"/>
+        <v>8.9778781038374547</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11">
+      <c r="A416" s="2">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="B416" s="2">
+        <v>84</v>
+      </c>
+      <c r="D416" s="2">
+        <f t="shared" si="18"/>
+        <v>15.900000000000006</v>
+      </c>
+      <c r="J416" s="2">
+        <f t="shared" si="19"/>
+        <v>74.722121896162534</v>
+      </c>
+      <c r="K416" s="2">
+        <f t="shared" si="20"/>
+        <v>9.277878103837466</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11">
+      <c r="A417" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="B417" s="2">
+        <v>84</v>
+      </c>
+      <c r="D417" s="2">
+        <f t="shared" si="18"/>
+        <v>16.5</v>
+      </c>
+      <c r="J417" s="2">
+        <f t="shared" si="19"/>
+        <v>74.12212189616254</v>
+      </c>
+      <c r="K417" s="2">
+        <f t="shared" si="20"/>
+        <v>9.8778781038374603</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11">
+      <c r="A418" s="2">
+        <v>67</v>
+      </c>
+      <c r="B418" s="2">
+        <v>84</v>
+      </c>
+      <c r="D418" s="2">
+        <f t="shared" si="18"/>
+        <v>17</v>
+      </c>
+      <c r="J418" s="2">
+        <f t="shared" si="19"/>
+        <v>73.62212189616254</v>
+      </c>
+      <c r="K418" s="2">
+        <f t="shared" si="20"/>
+        <v>10.37787810383746</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11">
+      <c r="A419" s="2">
+        <v>67.7</v>
+      </c>
+      <c r="B419" s="2">
+        <v>84</v>
+      </c>
+      <c r="D419" s="2">
+        <f t="shared" si="18"/>
+        <v>16.299999999999997</v>
+      </c>
+      <c r="J419" s="2">
+        <f t="shared" si="19"/>
+        <v>74.322121896162542</v>
+      </c>
+      <c r="K419" s="2">
+        <f t="shared" si="20"/>
+        <v>9.6778781038374575</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11">
+      <c r="A420" s="2">
+        <v>68.2</v>
+      </c>
+      <c r="B420" s="2">
+        <v>84</v>
+      </c>
+      <c r="D420" s="2">
+        <f t="shared" si="18"/>
+        <v>15.799999999999997</v>
+      </c>
+      <c r="J420" s="2">
+        <f t="shared" si="19"/>
+        <v>74.822121896162542</v>
+      </c>
+      <c r="K420" s="2">
+        <f t="shared" si="20"/>
+        <v>9.1778781038374575</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11">
+      <c r="A421" s="2">
+        <v>68.2</v>
+      </c>
+      <c r="B421" s="2">
+        <v>84</v>
+      </c>
+      <c r="D421" s="2">
+        <f t="shared" si="18"/>
+        <v>15.799999999999997</v>
+      </c>
+      <c r="J421" s="2">
+        <f t="shared" si="19"/>
+        <v>74.822121896162542</v>
+      </c>
+      <c r="K421" s="2">
+        <f t="shared" si="20"/>
+        <v>9.1778781038374575</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11">
+      <c r="A422" s="2">
+        <v>68.3</v>
+      </c>
+      <c r="B422" s="2">
+        <v>84</v>
+      </c>
+      <c r="D422" s="2">
+        <f t="shared" si="18"/>
+        <v>15.700000000000003</v>
+      </c>
+      <c r="J422" s="2">
+        <f t="shared" si="19"/>
+        <v>74.922121896162537</v>
+      </c>
+      <c r="K422" s="2">
+        <f t="shared" si="20"/>
+        <v>9.0778781038374632</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11">
+      <c r="A423" s="2">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="B423" s="2">
+        <v>84</v>
+      </c>
+      <c r="D423" s="2">
+        <f t="shared" si="18"/>
+        <v>15.599999999999994</v>
+      </c>
+      <c r="J423" s="2">
+        <f t="shared" si="19"/>
+        <v>75.022121896162545</v>
+      </c>
+      <c r="K423" s="2">
+        <f t="shared" si="20"/>
+        <v>8.9778781038374547</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11">
+      <c r="A424" s="2">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="B424" s="2">
+        <v>84</v>
+      </c>
+      <c r="D424" s="2">
+        <f t="shared" si="18"/>
+        <v>15.400000000000006</v>
+      </c>
+      <c r="J424" s="2">
+        <f t="shared" si="19"/>
+        <v>75.222121896162534</v>
+      </c>
+      <c r="K424" s="2">
+        <f t="shared" si="20"/>
+        <v>8.777878103837466</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11">
+      <c r="A425" s="2">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="B425" s="2">
+        <v>84</v>
+      </c>
+      <c r="D425" s="2">
+        <f t="shared" si="18"/>
+        <v>15.599999999999994</v>
+      </c>
+      <c r="J425" s="2">
+        <f t="shared" si="19"/>
+        <v>75.022121896162545</v>
+      </c>
+      <c r="K425" s="2">
+        <f t="shared" si="20"/>
+        <v>8.9778781038374547</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11">
+      <c r="A426" s="2">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="B426" s="2">
+        <v>84</v>
+      </c>
+      <c r="D426" s="2">
+        <f t="shared" si="18"/>
+        <v>16.400000000000006</v>
+      </c>
+      <c r="J426" s="2">
+        <f t="shared" si="19"/>
+        <v>74.222121896162534</v>
+      </c>
+      <c r="K426" s="2">
+        <f t="shared" si="20"/>
+        <v>9.777878103837466</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11">
+      <c r="A427" s="2">
+        <v>66.7</v>
+      </c>
+      <c r="B427" s="2">
+        <v>84</v>
+      </c>
+      <c r="D427" s="2">
+        <f t="shared" si="18"/>
+        <v>17.299999999999997</v>
+      </c>
+      <c r="J427" s="2">
+        <f t="shared" si="19"/>
+        <v>73.322121896162542</v>
+      </c>
+      <c r="K427" s="2">
+        <f t="shared" si="20"/>
+        <v>10.677878103837458</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11">
+      <c r="A428" s="2">
+        <v>66</v>
+      </c>
+      <c r="B428" s="2">
+        <v>84</v>
+      </c>
+      <c r="D428" s="2">
+        <f t="shared" si="18"/>
+        <v>18</v>
+      </c>
+      <c r="J428" s="2">
+        <f t="shared" si="19"/>
+        <v>72.62212189616254</v>
+      </c>
+      <c r="K428" s="2">
+        <f t="shared" si="20"/>
+        <v>11.37787810383746</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11">
+      <c r="A429" s="2">
+        <v>65.8</v>
+      </c>
+      <c r="B429" s="2">
+        <v>84</v>
+      </c>
+      <c r="D429" s="2">
+        <f t="shared" si="18"/>
+        <v>18.200000000000003</v>
+      </c>
+      <c r="J429" s="2">
+        <f t="shared" si="19"/>
+        <v>72.422121896162537</v>
+      </c>
+      <c r="K429" s="2">
+        <f t="shared" si="20"/>
+        <v>11.577878103837463</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11">
+      <c r="A430" s="2">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="B430" s="2">
+        <v>84</v>
+      </c>
+      <c r="D430" s="2">
+        <f t="shared" si="18"/>
+        <v>17.599999999999994</v>
+      </c>
+      <c r="J430" s="2">
+        <f t="shared" si="19"/>
+        <v>73.022121896162545</v>
+      </c>
+      <c r="K430" s="2">
+        <f t="shared" si="20"/>
+        <v>10.977878103837455</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11">
+      <c r="A431" s="2">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="B431" s="2">
+        <v>84</v>
+      </c>
+      <c r="D431" s="2">
+        <f t="shared" si="18"/>
+        <v>17.599999999999994</v>
+      </c>
+      <c r="J431" s="2">
+        <f t="shared" si="19"/>
+        <v>73.022121896162545</v>
+      </c>
+      <c r="K431" s="2">
+        <f t="shared" si="20"/>
+        <v>10.977878103837455</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11">
+      <c r="A432" s="2">
+        <v>67.3</v>
+      </c>
+      <c r="B432" s="2">
+        <v>84</v>
+      </c>
+      <c r="D432" s="2">
+        <f t="shared" si="18"/>
+        <v>16.700000000000003</v>
+      </c>
+      <c r="J432" s="2">
+        <f t="shared" si="19"/>
+        <v>73.922121896162537</v>
+      </c>
+      <c r="K432" s="2">
+        <f t="shared" si="20"/>
+        <v>10.077878103837463</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11">
+      <c r="A433" s="2">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="B433" s="2">
+        <v>84</v>
+      </c>
+      <c r="D433" s="2">
+        <f t="shared" si="18"/>
+        <v>16.400000000000006</v>
+      </c>
+      <c r="J433" s="2">
+        <f t="shared" si="19"/>
+        <v>74.222121896162534</v>
+      </c>
+      <c r="K433" s="2">
+        <f t="shared" si="20"/>
+        <v>9.777878103837466</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11">
+      <c r="A434" s="2">
+        <v>68</v>
+      </c>
+      <c r="B434" s="2">
+        <v>84</v>
+      </c>
+      <c r="D434" s="2">
+        <f t="shared" si="18"/>
+        <v>16</v>
+      </c>
+      <c r="J434" s="2">
+        <f t="shared" si="19"/>
+        <v>74.62212189616254</v>
+      </c>
+      <c r="K434" s="2">
+        <f t="shared" si="20"/>
+        <v>9.3778781038374603</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11">
+      <c r="A435" s="2">
+        <v>68.3</v>
+      </c>
+      <c r="B435" s="2">
+        <v>84</v>
+      </c>
+      <c r="D435" s="2">
+        <f t="shared" si="18"/>
+        <v>15.700000000000003</v>
+      </c>
+      <c r="J435" s="2">
+        <f t="shared" si="19"/>
+        <v>74.922121896162537</v>
+      </c>
+      <c r="K435" s="2">
+        <f t="shared" si="20"/>
+        <v>9.0778781038374632</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11">
+      <c r="A436" s="2">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="B436" s="2">
+        <v>84</v>
+      </c>
+      <c r="D436" s="2">
+        <f t="shared" si="18"/>
+        <v>15.400000000000006</v>
+      </c>
+      <c r="J436" s="2">
+        <f t="shared" si="19"/>
+        <v>75.222121896162534</v>
+      </c>
+      <c r="K436" s="2">
+        <f t="shared" si="20"/>
+        <v>8.777878103837466</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11">
+      <c r="A437" s="2">
+        <v>69.2</v>
+      </c>
+      <c r="B437" s="2">
+        <v>84</v>
+      </c>
+      <c r="D437" s="2">
+        <f t="shared" si="18"/>
+        <v>14.799999999999997</v>
+      </c>
+      <c r="J437" s="2">
+        <f t="shared" si="19"/>
+        <v>75.822121896162542</v>
+      </c>
+      <c r="K437" s="2">
+        <f t="shared" si="20"/>
+        <v>8.1778781038374575</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11">
+      <c r="A438" s="2">
+        <v>69.7</v>
+      </c>
+      <c r="B438" s="2">
+        <v>84</v>
+      </c>
+      <c r="D438" s="2">
+        <f t="shared" si="18"/>
+        <v>14.299999999999997</v>
+      </c>
+      <c r="J438" s="2">
+        <f t="shared" si="19"/>
+        <v>76.322121896162542</v>
+      </c>
+      <c r="K438" s="2">
+        <f t="shared" si="20"/>
+        <v>7.6778781038374575</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11">
+      <c r="A439" s="2">
+        <v>70</v>
+      </c>
+      <c r="B439" s="2">
+        <v>84</v>
+      </c>
+      <c r="D439" s="2">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="J439" s="2">
+        <f t="shared" si="19"/>
+        <v>76.62212189616254</v>
+      </c>
+      <c r="K439" s="2">
+        <f t="shared" si="20"/>
+        <v>7.3778781038374603</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11">
+      <c r="A440" s="2">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="B440" s="2">
+        <v>84</v>
+      </c>
+      <c r="D440" s="2">
+        <f t="shared" si="18"/>
+        <v>13.400000000000006</v>
+      </c>
+      <c r="J440" s="2">
+        <f t="shared" si="19"/>
+        <v>77.222121896162534</v>
+      </c>
+      <c r="K440" s="2">
+        <f t="shared" si="20"/>
+        <v>6.777878103837466</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11">
+      <c r="A441" s="2">
+        <v>70.7</v>
+      </c>
+      <c r="B441" s="2">
+        <v>84</v>
+      </c>
+      <c r="D441" s="2">
+        <f t="shared" si="18"/>
+        <v>13.299999999999997</v>
+      </c>
+      <c r="J441" s="2">
+        <f t="shared" si="19"/>
+        <v>77.322121896162542</v>
+      </c>
+      <c r="K441" s="2">
+        <f t="shared" si="20"/>
+        <v>6.6778781038374575</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11">
+      <c r="A442" s="2">
+        <v>70.8</v>
+      </c>
+      <c r="B442" s="2">
+        <v>84</v>
+      </c>
+      <c r="D442" s="2">
+        <f t="shared" si="18"/>
+        <v>13.200000000000003</v>
+      </c>
+      <c r="J442" s="2">
+        <f t="shared" si="19"/>
+        <v>77.422121896162537</v>
+      </c>
+      <c r="K442" s="2">
+        <f t="shared" si="20"/>
+        <v>6.5778781038374632</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11">
+      <c r="A443" s="2">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="B443" s="2">
+        <v>84</v>
+      </c>
+      <c r="D443" s="2">
+        <f t="shared" si="18"/>
+        <v>13.099999999999994</v>
+      </c>
+      <c r="J443" s="2">
+        <f t="shared" si="19"/>
+        <v>77.522121896162545</v>
+      </c>
+      <c r="K443" s="2">
+        <f t="shared" si="20"/>
+        <v>6.4778781038374547</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11">
+      <c r="A444" s="2">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="B444" s="2">
+        <v>84</v>
+      </c>
+      <c r="D444" s="2">
+        <f t="shared" si="18"/>
+        <v>13.099999999999994</v>
+      </c>
+      <c r="J444" s="2">
+        <f t="shared" si="19"/>
+        <v>77.522121896162545</v>
+      </c>
+      <c r="K444" s="2">
+        <f t="shared" si="20"/>
+        <v>6.4778781038374547</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
